--- a/R/DataAnalysis_with_XL.xlsx
+++ b/R/DataAnalysis_with_XL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tolkien/work/misc/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB24081-62C3-2840-802A-6FA7C17EBE4D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C14F17-59E7-FB45-BD9E-0F638DECF720}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="460" windowWidth="26360" windowHeight="14900" activeTab="8" xr2:uid="{67B1CA6F-5820-064F-AD42-D7A4C2160BED}"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="26360" windowHeight="14900" activeTab="9" xr2:uid="{67B1CA6F-5820-064F-AD42-D7A4C2160BED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="추정과 검정" sheetId="7" r:id="rId7"/>
     <sheet name="범주형 데이터 분석" sheetId="8" r:id="rId8"/>
     <sheet name="모평균 비교" sheetId="9" r:id="rId9"/>
+    <sheet name="분산분석" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">고급필터!$A$5:$H$20</definedName>
@@ -67,7 +68,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -84,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="467">
   <si>
     <t>번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1490,6 +1491,390 @@
   </si>
   <si>
     <t>단측검증 P-Value 0.000113은 작으므로 대립가설(불소농도 감소) 채택</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>분산분석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>셋이상 표본</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인자 A_1, A_2, A_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>표본평균 Y`_1, Y`_2, Y`_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>표본 Y_11, Y_12, …, Y_21, Y_22, …, Y_31, Y_32, …</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용어: 특성값, 일원배치, 이원배치, 인자의 수준(처리)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Y_ij - Y`_. ) = (Y_ij - Y`_i) + (Y`_i - Y`_.)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y`_. = mean (Y`_i)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum (Y_ij - Y`_. )^2 = sum (Y_ij - Y`_i)^2 + sum (Y`_i - Y`_.)^2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(이건, 총제곱합 = 급내 변동 + 급간 변동 으로 해석할 수 있다.)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y_ij = u_i + err_ij</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     = (u + alpah_i) + err_ij</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀무가설 H_0 : u_1 = u_2 = U_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>따라서, H_0 : alpha_1 = alpha_2 = alpha_3 = 0 이라고 바꿔 말할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>분산분석표</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제곱합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS_a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS_e</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS_T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>K - 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n - k</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제곱평균</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS_a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS_e</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS_a/MS_e</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reject H_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alpha : 유의수준</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>therefore, If P-Value &lt; alpha, reject H_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인자의 수준</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실험의 반복</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이어 원주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_n이 균형에</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미치는 영향</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일원배치법</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS_a = SS_a/(k - 1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS_e = SS_e/(n - k)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   P-Value : P_r(F&gt;F_0) under H_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>if F_0 &gt; F(k-1, n-k, alpha), reject H_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 데이터 분석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  : 일원배치법</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anova: Single Factor</t>
+  </si>
+  <si>
+    <t>SUMMARY</t>
+  </si>
+  <si>
+    <t>Groups</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Source of Variation</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>F crit</t>
+  </si>
+  <si>
+    <t>Between Groups</t>
+  </si>
+  <si>
+    <t>Within Groups</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변동의 요인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H_0 : 영향 없다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P-Value &lt; 유의수준 0.05보다 작으므로 reject H_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(or F &gt; F_crit 이므로 reject H_0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F(3, 15; 0.05)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기각역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pr(F &gt; 3.736)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이원배치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  반복이 있는 경우,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y_ij = u + alpha_i + beta_j + err_ij</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y_ijk = u + alpha_i + beta_j + (alpha beta)_ij + err_ijk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  반복이 없는 경우, (잘 안씀)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H_0 : alpha_1 = alpha_2 = … = 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H_0 : beta_1 = beta_2 = … = 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H_0 : (alpha beta)_ij = … = 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시멘트 강도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>석고의 종류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>석고첨가량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anova: Two-Factor With Replication</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Columns</t>
+  </si>
+  <si>
+    <t>Interaction</t>
+  </si>
+  <si>
+    <t>Within</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  : 이원배치법</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 분석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉, 석고종류, 함유량에 따라서 영향이 있다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1501,7 +1886,7 @@
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1534,6 +1919,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1543,7 +1937,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1571,6 +1965,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1583,7 +1986,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1637,6 +2040,15 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4525,6 +4937,1455 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE74125-A539-F745-BA50-841E57E9F490}">
+  <dimension ref="A1:P96"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B1" t="s">
+        <v>369</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" t="s">
+        <v>365</v>
+      </c>
+      <c r="H2" t="s">
+        <v>405</v>
+      </c>
+      <c r="I2" t="s">
+        <v>395</v>
+      </c>
+      <c r="K2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="B3" t="s">
+        <v>376</v>
+      </c>
+      <c r="H3" t="s">
+        <v>406</v>
+      </c>
+      <c r="I3" t="s">
+        <v>397</v>
+      </c>
+      <c r="J3" t="s">
+        <v>399</v>
+      </c>
+      <c r="K3" t="s">
+        <v>401</v>
+      </c>
+      <c r="L3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="H4" t="s">
+        <v>407</v>
+      </c>
+      <c r="I4">
+        <v>49</v>
+      </c>
+      <c r="J4">
+        <v>31</v>
+      </c>
+      <c r="K4">
+        <v>46</v>
+      </c>
+      <c r="L4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" t="s">
+        <v>366</v>
+      </c>
+      <c r="I5">
+        <v>73</v>
+      </c>
+      <c r="J5">
+        <v>40</v>
+      </c>
+      <c r="K5">
+        <v>41</v>
+      </c>
+      <c r="L5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="B6" t="s">
+        <v>368</v>
+      </c>
+      <c r="H6" t="s">
+        <v>404</v>
+      </c>
+      <c r="I6">
+        <v>58</v>
+      </c>
+      <c r="J6">
+        <v>43</v>
+      </c>
+      <c r="K6">
+        <v>58</v>
+      </c>
+      <c r="L6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" t="s">
+        <v>367</v>
+      </c>
+      <c r="I7">
+        <v>38</v>
+      </c>
+      <c r="J7">
+        <v>44</v>
+      </c>
+      <c r="K7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" t="s">
+        <v>371</v>
+      </c>
+      <c r="I8">
+        <v>42</v>
+      </c>
+      <c r="J8">
+        <v>34</v>
+      </c>
+      <c r="K8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="J9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" t="s">
+        <v>370</v>
+      </c>
+      <c r="G10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11" t="s">
+        <v>372</v>
+      </c>
+      <c r="G11" t="s">
+        <v>364</v>
+      </c>
+      <c r="H11" t="s">
+        <v>415</v>
+      </c>
+      <c r="J11" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12" t="s">
+        <v>373</v>
+      </c>
+      <c r="G12" t="s">
+        <v>414</v>
+      </c>
+      <c r="J12" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="19" thickBot="1">
+      <c r="H13" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="B14" t="s">
+        <v>374</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" t="s">
+        <v>375</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="I15" s="5">
+        <v>5</v>
+      </c>
+      <c r="J15" s="5">
+        <v>260</v>
+      </c>
+      <c r="K15" s="5">
+        <v>52</v>
+      </c>
+      <c r="L15" s="5">
+        <v>195.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" t="s">
+        <v>377</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="I16" s="5">
+        <v>6</v>
+      </c>
+      <c r="J16" s="5">
+        <v>212</v>
+      </c>
+      <c r="K16" s="5">
+        <v>35.333333333333336</v>
+      </c>
+      <c r="L16" s="5">
+        <v>82.266666666666609</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="H17" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="I17" s="5">
+        <v>5</v>
+      </c>
+      <c r="J17" s="5">
+        <v>241</v>
+      </c>
+      <c r="K17" s="5">
+        <v>48.2</v>
+      </c>
+      <c r="L17" s="5">
+        <v>182.69999999999982</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="19" thickBot="1">
+      <c r="B18" t="s">
+        <v>378</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="I18" s="6">
+        <v>3</v>
+      </c>
+      <c r="J18" s="6">
+        <v>194</v>
+      </c>
+      <c r="K18" s="6">
+        <v>64.666666666666671</v>
+      </c>
+      <c r="L18" s="6">
+        <v>292.33333333333303</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C19" t="s">
+        <v>380</v>
+      </c>
+      <c r="D19" t="s">
+        <v>330</v>
+      </c>
+      <c r="E19" t="s">
+        <v>387</v>
+      </c>
+      <c r="F19" t="s">
+        <v>390</v>
+      </c>
+      <c r="N19" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C20" t="s">
+        <v>381</v>
+      </c>
+      <c r="D20" t="s">
+        <v>385</v>
+      </c>
+      <c r="E20" t="s">
+        <v>388</v>
+      </c>
+      <c r="F20" t="s">
+        <v>391</v>
+      </c>
+      <c r="N20">
+        <f>_xlfn.F.INV(0.95, 3, 15)</f>
+        <v>3.2873821046365075</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="19" thickBot="1">
+      <c r="B21" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C21" t="s">
+        <v>383</v>
+      </c>
+      <c r="D21" t="s">
+        <v>386</v>
+      </c>
+      <c r="E21" t="s">
+        <v>389</v>
+      </c>
+      <c r="H21" t="s">
+        <v>419</v>
+      </c>
+      <c r="M21" t="s">
+        <v>435</v>
+      </c>
+      <c r="N21" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C22" t="s">
+        <v>384</v>
+      </c>
+      <c r="D22" t="s">
+        <v>288</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="F23" t="s">
+        <v>393</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="I23" s="5">
+        <v>1874.8842105263161</v>
+      </c>
+      <c r="J23" s="5">
+        <v>3</v>
+      </c>
+      <c r="K23" s="5">
+        <v>624.96140350877204</v>
+      </c>
+      <c r="L23" s="5">
+        <v>3.7366155343716447</v>
+      </c>
+      <c r="M23" s="5">
+        <v>3.4638152053647252E-2</v>
+      </c>
+      <c r="N23" s="5">
+        <v>3.2873821046365093</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="C24" t="s">
+        <v>412</v>
+      </c>
+      <c r="F24" t="s">
+        <v>409</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="I24" s="5">
+        <v>2508.7999999999997</v>
+      </c>
+      <c r="J24" s="5">
+        <v>15</v>
+      </c>
+      <c r="K24" s="5">
+        <v>167.2533333333333</v>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="C25" t="s">
+        <v>411</v>
+      </c>
+      <c r="F25" t="s">
+        <v>410</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="2:16" ht="19" thickBot="1">
+      <c r="C26" t="s">
+        <v>394</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="I26" s="6">
+        <v>4383.6842105263158</v>
+      </c>
+      <c r="J26" s="6">
+        <v>18</v>
+      </c>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="B28" s="18" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="B29" t="s">
+        <v>440</v>
+      </c>
+      <c r="H29" t="s">
+        <v>444</v>
+      </c>
+      <c r="I29" t="s">
+        <v>445</v>
+      </c>
+      <c r="K29" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="C30" t="s">
+        <v>438</v>
+      </c>
+      <c r="H30" t="s">
+        <v>458</v>
+      </c>
+      <c r="I30" t="s">
+        <v>397</v>
+      </c>
+      <c r="J30" t="s">
+        <v>399</v>
+      </c>
+      <c r="K30" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="B31" t="s">
+        <v>437</v>
+      </c>
+      <c r="H31" t="s">
+        <v>447</v>
+      </c>
+      <c r="I31" s="19">
+        <v>305</v>
+      </c>
+      <c r="J31">
+        <v>322</v>
+      </c>
+      <c r="K31">
+        <v>320</v>
+      </c>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="C32" t="s">
+        <v>439</v>
+      </c>
+      <c r="I32">
+        <v>302</v>
+      </c>
+      <c r="J32">
+        <v>325</v>
+      </c>
+      <c r="K32">
+        <v>322</v>
+      </c>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+    </row>
+    <row r="33" spans="3:16">
+      <c r="C33" t="s">
+        <v>441</v>
+      </c>
+      <c r="H33" t="s">
+        <v>449</v>
+      </c>
+      <c r="I33">
+        <v>335</v>
+      </c>
+      <c r="J33">
+        <v>350</v>
+      </c>
+      <c r="K33">
+        <v>342</v>
+      </c>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+    </row>
+    <row r="34" spans="3:16">
+      <c r="C34" t="s">
+        <v>442</v>
+      </c>
+      <c r="I34">
+        <v>337</v>
+      </c>
+      <c r="J34">
+        <v>348</v>
+      </c>
+      <c r="K34">
+        <v>344</v>
+      </c>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+    </row>
+    <row r="35" spans="3:16">
+      <c r="C35" t="s">
+        <v>443</v>
+      </c>
+      <c r="H35" t="s">
+        <v>451</v>
+      </c>
+      <c r="I35">
+        <v>366</v>
+      </c>
+      <c r="J35">
+        <v>326</v>
+      </c>
+      <c r="K35">
+        <v>333</v>
+      </c>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+    </row>
+    <row r="36" spans="3:16">
+      <c r="I36">
+        <v>364</v>
+      </c>
+      <c r="J36">
+        <v>324</v>
+      </c>
+      <c r="K36">
+        <v>336</v>
+      </c>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+    </row>
+    <row r="37" spans="3:16">
+      <c r="H37" t="s">
+        <v>453</v>
+      </c>
+      <c r="I37">
+        <v>372</v>
+      </c>
+      <c r="J37">
+        <v>330</v>
+      </c>
+      <c r="K37">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16">
+      <c r="I38">
+        <v>374</v>
+      </c>
+      <c r="J38">
+        <v>330</v>
+      </c>
+      <c r="K38">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="39" spans="3:16">
+      <c r="H39" t="s">
+        <v>455</v>
+      </c>
+      <c r="I39">
+        <v>376</v>
+      </c>
+      <c r="J39">
+        <v>327</v>
+      </c>
+      <c r="K39">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="40" spans="3:16">
+      <c r="I40">
+        <v>373</v>
+      </c>
+      <c r="J40">
+        <v>330</v>
+      </c>
+      <c r="K40">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="41" spans="3:16">
+      <c r="H41" t="s">
+        <v>457</v>
+      </c>
+      <c r="I41">
+        <v>348</v>
+      </c>
+      <c r="J41">
+        <v>310</v>
+      </c>
+      <c r="K41">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="42" spans="3:16">
+      <c r="I42">
+        <v>350</v>
+      </c>
+      <c r="J42">
+        <v>308</v>
+      </c>
+      <c r="K42">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="43" spans="3:16">
+      <c r="G43" t="s">
+        <v>465</v>
+      </c>
+      <c r="H43" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16">
+      <c r="G44" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="45" spans="3:16">
+      <c r="G45" t="s">
+        <v>464</v>
+      </c>
+      <c r="H45" t="s">
+        <v>416</v>
+      </c>
+      <c r="I45" t="s">
+        <v>396</v>
+      </c>
+      <c r="J45" t="s">
+        <v>398</v>
+      </c>
+      <c r="K45" t="s">
+        <v>400</v>
+      </c>
+      <c r="L45" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="46" spans="3:16" ht="19" thickBot="1">
+      <c r="H46" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+    </row>
+    <row r="47" spans="3:16">
+      <c r="H47" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I47" s="5">
+        <v>2</v>
+      </c>
+      <c r="J47" s="5">
+        <v>2</v>
+      </c>
+      <c r="K47" s="5">
+        <v>2</v>
+      </c>
+      <c r="L47" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="3:16">
+      <c r="H48" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I48" s="5">
+        <v>607</v>
+      </c>
+      <c r="J48" s="5">
+        <v>647</v>
+      </c>
+      <c r="K48" s="5">
+        <v>642</v>
+      </c>
+      <c r="L48" s="5">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="49" spans="8:12">
+      <c r="H49" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="I49" s="5">
+        <v>303.5</v>
+      </c>
+      <c r="J49" s="5">
+        <v>323.5</v>
+      </c>
+      <c r="K49" s="5">
+        <v>321</v>
+      </c>
+      <c r="L49" s="5">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="50" spans="8:12">
+      <c r="H50" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="I50" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="J50" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="K50" s="5">
+        <v>2</v>
+      </c>
+      <c r="L50" s="5">
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="51" spans="8:12" hidden="1">
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+    </row>
+    <row r="52" spans="8:12" ht="19" hidden="1" thickBot="1">
+      <c r="H52" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+    </row>
+    <row r="53" spans="8:12" hidden="1">
+      <c r="H53" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I53" s="5">
+        <v>2</v>
+      </c>
+      <c r="J53" s="5">
+        <v>2</v>
+      </c>
+      <c r="K53" s="5">
+        <v>2</v>
+      </c>
+      <c r="L53" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="8:12" hidden="1">
+      <c r="H54" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I54" s="5">
+        <v>672</v>
+      </c>
+      <c r="J54" s="5">
+        <v>698</v>
+      </c>
+      <c r="K54" s="5">
+        <v>686</v>
+      </c>
+      <c r="L54" s="5">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="55" spans="8:12" hidden="1">
+      <c r="H55" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="I55" s="5">
+        <v>336</v>
+      </c>
+      <c r="J55" s="5">
+        <v>349</v>
+      </c>
+      <c r="K55" s="5">
+        <v>343</v>
+      </c>
+      <c r="L55" s="5">
+        <v>342.66666666666669</v>
+      </c>
+    </row>
+    <row r="56" spans="8:12" hidden="1">
+      <c r="H56" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="I56" s="5">
+        <v>2</v>
+      </c>
+      <c r="J56" s="5">
+        <v>2</v>
+      </c>
+      <c r="K56" s="5">
+        <v>2</v>
+      </c>
+      <c r="L56" s="5">
+        <v>35.066666666666663</v>
+      </c>
+    </row>
+    <row r="57" spans="8:12" hidden="1">
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+    </row>
+    <row r="58" spans="8:12" ht="19" hidden="1" thickBot="1">
+      <c r="H58" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+    </row>
+    <row r="59" spans="8:12" hidden="1">
+      <c r="H59" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I59" s="5">
+        <v>2</v>
+      </c>
+      <c r="J59" s="5">
+        <v>2</v>
+      </c>
+      <c r="K59" s="5">
+        <v>2</v>
+      </c>
+      <c r="L59" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="8:12" hidden="1">
+      <c r="H60" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I60" s="5">
+        <v>730</v>
+      </c>
+      <c r="J60" s="5">
+        <v>650</v>
+      </c>
+      <c r="K60" s="5">
+        <v>669</v>
+      </c>
+      <c r="L60" s="5">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="61" spans="8:12" hidden="1">
+      <c r="H61" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="I61" s="5">
+        <v>365</v>
+      </c>
+      <c r="J61" s="5">
+        <v>325</v>
+      </c>
+      <c r="K61" s="5">
+        <v>334.5</v>
+      </c>
+      <c r="L61" s="5">
+        <v>341.5</v>
+      </c>
+    </row>
+    <row r="62" spans="8:12" hidden="1">
+      <c r="H62" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="I62" s="5">
+        <v>2</v>
+      </c>
+      <c r="J62" s="5">
+        <v>2</v>
+      </c>
+      <c r="K62" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="L62" s="5">
+        <v>351.1</v>
+      </c>
+    </row>
+    <row r="63" spans="8:12" hidden="1">
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+    </row>
+    <row r="64" spans="8:12" ht="19" hidden="1" thickBot="1">
+      <c r="H64" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+    </row>
+    <row r="65" spans="8:12" hidden="1">
+      <c r="H65" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I65" s="5">
+        <v>2</v>
+      </c>
+      <c r="J65" s="5">
+        <v>2</v>
+      </c>
+      <c r="K65" s="5">
+        <v>2</v>
+      </c>
+      <c r="L65" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="8:12" hidden="1">
+      <c r="H66" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I66" s="5">
+        <v>746</v>
+      </c>
+      <c r="J66" s="5">
+        <v>660</v>
+      </c>
+      <c r="K66" s="5">
+        <v>696</v>
+      </c>
+      <c r="L66" s="5">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="67" spans="8:12" hidden="1">
+      <c r="H67" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="I67" s="5">
+        <v>373</v>
+      </c>
+      <c r="J67" s="5">
+        <v>330</v>
+      </c>
+      <c r="K67" s="5">
+        <v>348</v>
+      </c>
+      <c r="L67" s="5">
+        <v>350.33333333333331</v>
+      </c>
+    </row>
+    <row r="68" spans="8:12" hidden="1">
+      <c r="H68" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="I68" s="5">
+        <v>2</v>
+      </c>
+      <c r="J68" s="5">
+        <v>0</v>
+      </c>
+      <c r="K68" s="5">
+        <v>0</v>
+      </c>
+      <c r="L68" s="5">
+        <v>373.46666666666664</v>
+      </c>
+    </row>
+    <row r="69" spans="8:12" hidden="1">
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+    </row>
+    <row r="70" spans="8:12" ht="19" hidden="1" thickBot="1">
+      <c r="H70" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="I70" s="20"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="20"/>
+    </row>
+    <row r="71" spans="8:12" hidden="1">
+      <c r="H71" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I71" s="5">
+        <v>2</v>
+      </c>
+      <c r="J71" s="5">
+        <v>2</v>
+      </c>
+      <c r="K71" s="5">
+        <v>2</v>
+      </c>
+      <c r="L71" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="8:12" hidden="1">
+      <c r="H72" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I72" s="5">
+        <v>749</v>
+      </c>
+      <c r="J72" s="5">
+        <v>657</v>
+      </c>
+      <c r="K72" s="5">
+        <v>700</v>
+      </c>
+      <c r="L72" s="5">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="73" spans="8:12" hidden="1">
+      <c r="H73" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="I73" s="5">
+        <v>374.5</v>
+      </c>
+      <c r="J73" s="5">
+        <v>328.5</v>
+      </c>
+      <c r="K73" s="5">
+        <v>350</v>
+      </c>
+      <c r="L73" s="5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="74" spans="8:12" hidden="1">
+      <c r="H74" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="I74" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="J74" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="K74" s="5">
+        <v>0</v>
+      </c>
+      <c r="L74" s="5">
+        <v>425.6</v>
+      </c>
+    </row>
+    <row r="75" spans="8:12" hidden="1">
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+    </row>
+    <row r="76" spans="8:12" ht="19" hidden="1" thickBot="1">
+      <c r="H76" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="I76" s="20"/>
+      <c r="J76" s="20"/>
+      <c r="K76" s="20"/>
+      <c r="L76" s="20"/>
+    </row>
+    <row r="77" spans="8:12" hidden="1">
+      <c r="H77" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I77" s="5">
+        <v>2</v>
+      </c>
+      <c r="J77" s="5">
+        <v>2</v>
+      </c>
+      <c r="K77" s="5">
+        <v>2</v>
+      </c>
+      <c r="L77" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="8:12" hidden="1">
+      <c r="H78" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I78" s="5">
+        <v>698</v>
+      </c>
+      <c r="J78" s="5">
+        <v>618</v>
+      </c>
+      <c r="K78" s="5">
+        <v>658</v>
+      </c>
+      <c r="L78" s="5">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="79" spans="8:12" hidden="1">
+      <c r="H79" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="I79" s="5">
+        <v>349</v>
+      </c>
+      <c r="J79" s="5">
+        <v>309</v>
+      </c>
+      <c r="K79" s="5">
+        <v>329</v>
+      </c>
+      <c r="L79" s="5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="80" spans="8:12" hidden="1">
+      <c r="H80" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="I80" s="5">
+        <v>2</v>
+      </c>
+      <c r="J80" s="5">
+        <v>2</v>
+      </c>
+      <c r="K80" s="5">
+        <v>2</v>
+      </c>
+      <c r="L80" s="5">
+        <v>321.2</v>
+      </c>
+    </row>
+    <row r="81" spans="4:15">
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+    </row>
+    <row r="82" spans="4:15" ht="19" thickBot="1">
+      <c r="H82" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="I82" s="20"/>
+      <c r="J82" s="20"/>
+      <c r="K82" s="20"/>
+      <c r="L82" s="20"/>
+      <c r="M82" s="20"/>
+      <c r="N82" s="20"/>
+      <c r="O82" s="20"/>
+    </row>
+    <row r="83" spans="4:15">
+      <c r="H83" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I83" s="5">
+        <v>12</v>
+      </c>
+      <c r="J83" s="5">
+        <v>12</v>
+      </c>
+      <c r="K83" s="5">
+        <v>12</v>
+      </c>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="5"/>
+    </row>
+    <row r="84" spans="4:15">
+      <c r="H84" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I84" s="5">
+        <v>4202</v>
+      </c>
+      <c r="J84" s="5">
+        <v>3930</v>
+      </c>
+      <c r="K84" s="5">
+        <v>4051</v>
+      </c>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="5"/>
+    </row>
+    <row r="85" spans="4:15">
+      <c r="H85" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="I85" s="5">
+        <v>350.16666666666669</v>
+      </c>
+      <c r="J85" s="5">
+        <v>327.5</v>
+      </c>
+      <c r="K85" s="5">
+        <v>337.58333333333331</v>
+      </c>
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
+      <c r="N85" s="5"/>
+      <c r="O85" s="5"/>
+    </row>
+    <row r="86" spans="4:15">
+      <c r="H86" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="I86" s="5">
+        <v>676.69696969696952</v>
+      </c>
+      <c r="J86" s="5">
+        <v>153</v>
+      </c>
+      <c r="K86" s="5">
+        <v>119.17424242424239</v>
+      </c>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
+    </row>
+    <row r="87" spans="4:15">
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
+    </row>
+    <row r="89" spans="4:15" ht="19" thickBot="1">
+      <c r="D89" t="s">
+        <v>392</v>
+      </c>
+      <c r="H89" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="90" spans="4:15">
+      <c r="D90" t="s">
+        <v>466</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K90" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="L90" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="M90" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="N90" s="7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="91" spans="4:15">
+      <c r="H91" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="I91" s="5">
+        <v>5514.5833333333339</v>
+      </c>
+      <c r="J91" s="5">
+        <v>5</v>
+      </c>
+      <c r="K91" s="5">
+        <v>1102.9166666666667</v>
+      </c>
+      <c r="L91" s="5">
+        <v>467.11764705882354</v>
+      </c>
+      <c r="M91" s="5">
+        <v>2.1852719527371638E-18</v>
+      </c>
+      <c r="N91" s="5">
+        <v>2.77285315299783</v>
+      </c>
+    </row>
+    <row r="92" spans="4:15">
+      <c r="H92" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="I92" s="5">
+        <v>3095.1666666666697</v>
+      </c>
+      <c r="J92" s="5">
+        <v>2</v>
+      </c>
+      <c r="K92" s="5">
+        <v>1547.5833333333348</v>
+      </c>
+      <c r="L92" s="5">
+        <v>655.44705882353003</v>
+      </c>
+      <c r="M92" s="5">
+        <v>1.5347552749979913E-17</v>
+      </c>
+      <c r="N92" s="5">
+        <v>3.5545571456617879</v>
+      </c>
+    </row>
+    <row r="93" spans="4:15">
+      <c r="H93" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="I93" s="5">
+        <v>4880.4999999999964</v>
+      </c>
+      <c r="J93" s="5">
+        <v>10</v>
+      </c>
+      <c r="K93" s="5">
+        <v>488.04999999999961</v>
+      </c>
+      <c r="L93" s="5">
+        <v>206.70352941176455</v>
+      </c>
+      <c r="M93" s="5">
+        <v>1.8458207702998265E-16</v>
+      </c>
+      <c r="N93" s="5">
+        <v>2.4117020398339202</v>
+      </c>
+    </row>
+    <row r="94" spans="4:15">
+      <c r="H94" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="I94" s="5">
+        <v>42.5</v>
+      </c>
+      <c r="J94" s="5">
+        <v>18</v>
+      </c>
+      <c r="K94" s="5">
+        <v>2.3611111111111112</v>
+      </c>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
+    </row>
+    <row r="95" spans="4:15">
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5"/>
+    </row>
+    <row r="96" spans="4:15" ht="19" thickBot="1">
+      <c r="H96" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="I96" s="6">
+        <v>13532.75</v>
+      </c>
+      <c r="J96" s="6">
+        <v>35</v>
+      </c>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A715B68-47F2-964B-8A36-ACE178FD105B}">
   <dimension ref="A1:J18"/>
@@ -6415,7 +8276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B880057-1417-9C44-8EFE-169F315DE364}">
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -7203,8 +9064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB99346-FDFE-254D-AD15-0E551765C04C}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/R/DataAnalysis_with_XL.xlsx
+++ b/R/DataAnalysis_with_XL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tolkien/work/misc/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C14F17-59E7-FB45-BD9E-0F638DECF720}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CF19F9-C62D-6C44-8DE7-DC9F23F011D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="460" windowWidth="26360" windowHeight="14900" activeTab="9" xr2:uid="{67B1CA6F-5820-064F-AD42-D7A4C2160BED}"/>
   </bookViews>
@@ -22,7 +22,8 @@
     <sheet name="추정과 검정" sheetId="7" r:id="rId7"/>
     <sheet name="범주형 데이터 분석" sheetId="8" r:id="rId8"/>
     <sheet name="모평균 비교" sheetId="9" r:id="rId9"/>
-    <sheet name="분산분석" sheetId="10" r:id="rId10"/>
+    <sheet name="모평균 비교.2" sheetId="11" r:id="rId10"/>
+    <sheet name="분산분석" sheetId="10" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">고급필터!$A$5:$H$20</definedName>
@@ -68,7 +69,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId11"/>
+    <pivotCache cacheId="1" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -85,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="477">
   <si>
     <t>번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1378,10 +1379,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>양측검증에 대한 P-Value(유의확률) = 0.358 * 2 = 0.76</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>따라서, H_0 : s_1 == s_2 (Equal Var)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1875,6 +1872,47 @@
   </si>
   <si>
     <t>즉, 석고종류, 함유량에 따라서 영향이 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F &gt; 0.368</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player A</t>
+  </si>
+  <si>
+    <t>Player B</t>
+  </si>
+  <si>
+    <t>F Right Side</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F &gt; 4.026</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>따라서, H_1 : s_1 != s_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t-Test: Two-Sample Assuming Unequal Variances</t>
+  </si>
+  <si>
+    <t>양측검증에 대한 유의확률(P-Value) 0.923 &gt; 0.05보다 크므로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀무가설(양쪽 점수에 대한 차이가 없다.) 받아들임</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1986,7 +2024,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2049,6 +2087,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3792,7 +3836,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{997CCEA4-703E-F24D-B476-F7A11AFE5C39}" name="피벗 테이블8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{997CCEA4-703E-F24D-B476-F7A11AFE5C39}" name="피벗 테이블8" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G15:M20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -3873,7 +3917,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{373BBE9B-40A9-9046-AC24-88C4564A3DC0}" name="피벗 테이블3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{373BBE9B-40A9-9046-AC24-88C4564A3DC0}" name="피벗 테이블3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G10:H13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -3921,7 +3965,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F7BDFCAB-D9A5-9C44-A551-E814858011D8}" name="피벗 테이블2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F7BDFCAB-D9A5-9C44-A551-E814858011D8}" name="피벗 테이블2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -4938,10 +4982,552 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83E327F-C231-D549-A63F-13BCEE8A135C}">
+  <dimension ref="A2:G43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="19" thickBot="1">
+      <c r="B4">
+        <v>198</v>
+      </c>
+      <c r="C4">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5">
+        <v>119</v>
+      </c>
+      <c r="C5">
+        <v>159</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6">
+        <v>174</v>
+      </c>
+      <c r="C6">
+        <v>162</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <f>AVERAGE(B4:B13)</f>
+        <v>175.1</v>
+      </c>
+      <c r="F6">
+        <f>AVERAGE(C4:C13)</f>
+        <v>173.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7">
+        <v>235</v>
+      </c>
+      <c r="C7">
+        <v>178</v>
+      </c>
+      <c r="D7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E7">
+        <f>_xlfn.VAR.S(B4:B13)</f>
+        <v>1831.4333333333359</v>
+      </c>
+      <c r="F7">
+        <f>_xlfn.VAR.S(C4:C13)</f>
+        <v>184.90000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8">
+        <v>134</v>
+      </c>
+      <c r="C8">
+        <v>188</v>
+      </c>
+      <c r="D8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E8">
+        <f>COUNT(B4:B13)</f>
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <f>COUNT(C4:C13)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9">
+        <v>192</v>
+      </c>
+      <c r="C9">
+        <v>169</v>
+      </c>
+      <c r="D9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E9">
+        <f>E8-1</f>
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <f>F8-1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10">
+        <v>124</v>
+      </c>
+      <c r="C10">
+        <v>173</v>
+      </c>
+      <c r="D10" t="s">
+        <v>316</v>
+      </c>
+      <c r="E10">
+        <f>E7/F7</f>
+        <v>9.9049936902830478</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19" thickBot="1">
+      <c r="B11">
+        <v>241</v>
+      </c>
+      <c r="C11">
+        <v>183</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>471</v>
+      </c>
+      <c r="E11" s="22">
+        <f>_xlfn.F.INV.RT(0.05/2,E9,F9)</f>
+        <v>4.0259941582829777</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12">
+        <v>158</v>
+      </c>
+      <c r="C12">
+        <v>177</v>
+      </c>
+      <c r="G12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13">
+        <v>176</v>
+      </c>
+      <c r="C13">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>320</v>
+      </c>
+      <c r="D14" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19" thickBot="1"/>
+    <row r="16" spans="1:7">
+      <c r="D16" s="21"/>
+      <c r="E16" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <f>E6</f>
+        <v>175.1</v>
+      </c>
+      <c r="F17">
+        <f>F6</f>
+        <v>173.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="D18" t="s">
+        <v>313</v>
+      </c>
+      <c r="E18">
+        <f>E7</f>
+        <v>1831.4333333333359</v>
+      </c>
+      <c r="F18">
+        <f>F7</f>
+        <v>184.90000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="C19" t="s">
+        <v>329</v>
+      </c>
+      <c r="D19" t="s">
+        <v>314</v>
+      </c>
+      <c r="E19">
+        <f>E8</f>
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <f>F8</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="D20" t="s">
+        <v>323</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f>(E18/E19 + F18/F19)^2</f>
+        <v>40656.001111111225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="C21" t="s">
+        <v>330</v>
+      </c>
+      <c r="D21" t="s">
+        <v>315</v>
+      </c>
+      <c r="E21">
+        <f>ROUNDUP(G20/G21, 0)</f>
+        <v>11</v>
+      </c>
+      <c r="G21">
+        <f>(E18/E19)^2/(E19-1) + (F18/F19)^2/(F19-1)</f>
+        <v>3764.8178493827272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="C22" t="s">
+        <v>272</v>
+      </c>
+      <c r="D22" t="s">
+        <v>324</v>
+      </c>
+      <c r="E22">
+        <f>(E17-F17)/SQRT(E18/E19+F18/F19)</f>
+        <v>9.8593179164089884E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="D23" t="s">
+        <v>325</v>
+      </c>
+      <c r="E23">
+        <f>_xlfn.T.DIST.RT(E22, E21)</f>
+        <v>0.46161750063056384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="D24" t="s">
+        <v>326</v>
+      </c>
+      <c r="E24">
+        <f>_xlfn.T.INV(1-0.05,E21)</f>
+        <v>1.795884818704043</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="C25" t="s">
+        <v>331</v>
+      </c>
+      <c r="D25" t="s">
+        <v>327</v>
+      </c>
+      <c r="E25">
+        <f>_xlfn.T.DIST.2T(E22,E21)</f>
+        <v>0.92323500126112767</v>
+      </c>
+      <c r="G25" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="19" thickBot="1">
+      <c r="D26" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="E26" s="22">
+        <f>_xlfn.T.INV.2T(0.05,E21)</f>
+        <v>2.2009851600916384</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="G26" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>350</v>
+      </c>
+      <c r="C29" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>351</v>
+      </c>
+      <c r="B30" t="s">
+        <v>347</v>
+      </c>
+      <c r="C30" t="s">
+        <v>349</v>
+      </c>
+      <c r="D30" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="19" thickBot="1">
+      <c r="B31" s="17">
+        <v>24.7</v>
+      </c>
+      <c r="C31" s="17">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32" s="17">
+        <v>46.1</v>
+      </c>
+      <c r="C32" s="17">
+        <v>14.1</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="17">
+        <v>18.5</v>
+      </c>
+      <c r="C33" s="17">
+        <v>7.6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33">
+        <v>25.736363636363635</v>
+      </c>
+      <c r="F33">
+        <v>11.899999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="17">
+        <v>29.5</v>
+      </c>
+      <c r="C34" s="17">
+        <v>9.5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>313</v>
+      </c>
+      <c r="E34">
+        <v>69.03254545454547</v>
+      </c>
+      <c r="F34">
+        <v>12.460000000000104</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="17">
+        <v>26.3</v>
+      </c>
+      <c r="C35" s="17">
+        <v>19.7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>314</v>
+      </c>
+      <c r="E35">
+        <v>11</v>
+      </c>
+      <c r="F35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="17">
+        <v>33.9</v>
+      </c>
+      <c r="C36" s="17">
+        <v>10.6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>353</v>
+      </c>
+      <c r="E36">
+        <v>0.25371453001499245</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="17">
+        <v>23.1</v>
+      </c>
+      <c r="C37" s="17">
+        <v>9.1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>323</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="17">
+        <v>20.7</v>
+      </c>
+      <c r="C38" s="17">
+        <v>11.3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>315</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="G38" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="17">
+        <v>18</v>
+      </c>
+      <c r="C39" s="17">
+        <v>13.3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>324</v>
+      </c>
+      <c r="E39">
+        <v>5.622724632312992</v>
+      </c>
+      <c r="G39" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="17">
+        <v>19.3</v>
+      </c>
+      <c r="C40" s="17">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D40" t="s">
+        <v>325</v>
+      </c>
+      <c r="E40">
+        <v>1.1031198475000419E-4</v>
+      </c>
+      <c r="G40" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="17">
+        <v>23</v>
+      </c>
+      <c r="C41" s="17">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s">
+        <v>326</v>
+      </c>
+      <c r="E41">
+        <v>1.812461122811676</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="D42" t="s">
+        <v>327</v>
+      </c>
+      <c r="E42">
+        <v>2.2062396950000838E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="19" thickBot="1">
+      <c r="D43" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="E43" s="22">
+        <v>2.2281388519862744</v>
+      </c>
+      <c r="F43" s="22"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE74125-A539-F745-BA50-841E57E9F490}">
   <dimension ref="A1:P96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
@@ -4949,52 +5535,52 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="B2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="B3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="H4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I4">
         <v>49</v>
@@ -5011,7 +5597,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I5">
         <v>73</v>
@@ -5028,10 +5614,10 @@
     </row>
     <row r="6" spans="1:12">
       <c r="B6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I6">
         <v>58</v>
@@ -5048,7 +5634,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="B7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I7">
         <v>38</v>
@@ -5062,7 +5648,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="B8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I8">
         <v>42</v>
@@ -5081,48 +5667,48 @@
     </row>
     <row r="10" spans="1:12">
       <c r="B10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="19" thickBot="1">
       <c r="H13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>62</v>
@@ -5131,7 +5717,7 @@
         <v>61</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>313</v>
@@ -5139,10 +5725,10 @@
     </row>
     <row r="15" spans="1:12">
       <c r="B15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I15" s="5">
         <v>5</v>
@@ -5159,10 +5745,10 @@
     </row>
     <row r="16" spans="1:12">
       <c r="B16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I16" s="5">
         <v>6</v>
@@ -5179,7 +5765,7 @@
     </row>
     <row r="17" spans="2:16">
       <c r="H17" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I17" s="5">
         <v>5</v>
@@ -5196,10 +5782,10 @@
     </row>
     <row r="18" spans="2:16" ht="19" thickBot="1">
       <c r="B18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I18" s="6">
         <v>3</v>
@@ -5216,39 +5802,39 @@
     </row>
     <row r="19" spans="2:16">
       <c r="B19" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D19" t="s">
         <v>330</v>
       </c>
       <c r="E19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N19" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="2:16">
       <c r="B20" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D20" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N20">
         <f>_xlfn.F.INV(0.95, 3, 15)</f>
@@ -5257,65 +5843,65 @@
     </row>
     <row r="21" spans="2:16" ht="19" thickBot="1">
       <c r="B21" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C21" t="s">
         <v>382</v>
       </c>
-      <c r="C21" t="s">
-        <v>383</v>
-      </c>
       <c r="D21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H21" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M21" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="N21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="22" spans="2:16">
       <c r="B22" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D22" t="s">
         <v>288</v>
       </c>
       <c r="H22" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="I22" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>315</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>316</v>
       </c>
       <c r="M22" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="N22" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="23" spans="2:16">
       <c r="F23" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I23" s="5">
         <v>1874.8842105263161</v>
@@ -5338,13 +5924,13 @@
     </row>
     <row r="24" spans="2:16">
       <c r="C24" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F24" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I24" s="5">
         <v>2508.7999999999997</v>
@@ -5361,10 +5947,10 @@
     </row>
     <row r="25" spans="2:16">
       <c r="C25" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F25" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -5376,10 +5962,10 @@
     </row>
     <row r="26" spans="2:16" ht="19" thickBot="1">
       <c r="C26" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I26" s="6">
         <v>4383.6842105263158</v>
@@ -5394,46 +5980,46 @@
     </row>
     <row r="28" spans="2:16">
       <c r="B28" s="18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="29" spans="2:16">
       <c r="B29" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H29" t="s">
+        <v>443</v>
+      </c>
+      <c r="I29" t="s">
         <v>444</v>
       </c>
-      <c r="I29" t="s">
-        <v>445</v>
-      </c>
       <c r="K29" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="30" spans="2:16">
       <c r="C30" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H30" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I30" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J30" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K30" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="2:16">
       <c r="B31" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H31" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I31" s="19">
         <v>305</v>
@@ -5449,7 +6035,7 @@
     </row>
     <row r="32" spans="2:16">
       <c r="C32" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I32">
         <v>302</v>
@@ -5465,10 +6051,10 @@
     </row>
     <row r="33" spans="3:16">
       <c r="C33" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H33" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I33">
         <v>335</v>
@@ -5484,7 +6070,7 @@
     </row>
     <row r="34" spans="3:16">
       <c r="C34" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I34">
         <v>337</v>
@@ -5500,10 +6086,10 @@
     </row>
     <row r="35" spans="3:16">
       <c r="C35" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H35" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I35">
         <v>366</v>
@@ -5532,7 +6118,7 @@
     </row>
     <row r="37" spans="3:16">
       <c r="H37" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I37">
         <v>372</v>
@@ -5557,7 +6143,7 @@
     </row>
     <row r="39" spans="3:16">
       <c r="H39" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I39">
         <v>376</v>
@@ -5582,7 +6168,7 @@
     </row>
     <row r="41" spans="3:16">
       <c r="H41" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I41">
         <v>348</v>
@@ -5607,40 +6193,40 @@
     </row>
     <row r="43" spans="3:16">
       <c r="G43" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="44" spans="3:16">
       <c r="G44" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="45" spans="3:16">
       <c r="G45" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H45" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I45" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J45" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K45" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L45" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="46" spans="3:16" ht="19" thickBot="1">
       <c r="H46" s="20" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
@@ -5683,7 +6269,7 @@
     </row>
     <row r="49" spans="8:12">
       <c r="H49" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I49" s="5">
         <v>303.5</v>
@@ -5724,7 +6310,7 @@
     </row>
     <row r="52" spans="8:12" ht="19" hidden="1" thickBot="1">
       <c r="H52" s="20" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I52" s="20"/>
       <c r="J52" s="20"/>
@@ -5767,7 +6353,7 @@
     </row>
     <row r="55" spans="8:12" hidden="1">
       <c r="H55" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I55" s="5">
         <v>336</v>
@@ -5808,7 +6394,7 @@
     </row>
     <row r="58" spans="8:12" ht="19" hidden="1" thickBot="1">
       <c r="H58" s="20" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I58" s="20"/>
       <c r="J58" s="20"/>
@@ -5851,7 +6437,7 @@
     </row>
     <row r="61" spans="8:12" hidden="1">
       <c r="H61" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I61" s="5">
         <v>365</v>
@@ -5892,7 +6478,7 @@
     </row>
     <row r="64" spans="8:12" ht="19" hidden="1" thickBot="1">
       <c r="H64" s="20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I64" s="20"/>
       <c r="J64" s="20"/>
@@ -5935,7 +6521,7 @@
     </row>
     <row r="67" spans="8:12" hidden="1">
       <c r="H67" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I67" s="5">
         <v>373</v>
@@ -5976,7 +6562,7 @@
     </row>
     <row r="70" spans="8:12" ht="19" hidden="1" thickBot="1">
       <c r="H70" s="20" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I70" s="20"/>
       <c r="J70" s="20"/>
@@ -6019,7 +6605,7 @@
     </row>
     <row r="73" spans="8:12" hidden="1">
       <c r="H73" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I73" s="5">
         <v>374.5</v>
@@ -6060,7 +6646,7 @@
     </row>
     <row r="76" spans="8:12" ht="19" hidden="1" thickBot="1">
       <c r="H76" s="20" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I76" s="20"/>
       <c r="J76" s="20"/>
@@ -6103,7 +6689,7 @@
     </row>
     <row r="79" spans="8:12" hidden="1">
       <c r="H79" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I79" s="5">
         <v>349</v>
@@ -6144,7 +6730,7 @@
     </row>
     <row r="82" spans="4:15" ht="19" thickBot="1">
       <c r="H82" s="20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I82" s="20"/>
       <c r="J82" s="20"/>
@@ -6192,7 +6778,7 @@
     </row>
     <row r="85" spans="4:15">
       <c r="H85" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I85" s="5">
         <v>350.16666666666669</v>
@@ -6238,41 +6824,41 @@
     </row>
     <row r="89" spans="4:15" ht="19" thickBot="1">
       <c r="D89" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H89" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="90" spans="4:15">
       <c r="D90" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H90" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="I90" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="I90" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="J90" s="7" t="s">
         <v>315</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L90" s="7" t="s">
         <v>316</v>
       </c>
       <c r="M90" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="N90" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="N90" s="7" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="91" spans="4:15">
       <c r="H91" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I91" s="5">
         <v>5514.5833333333339</v>
@@ -6295,7 +6881,7 @@
     </row>
     <row r="92" spans="4:15">
       <c r="H92" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I92" s="5">
         <v>3095.1666666666697</v>
@@ -6318,7 +6904,7 @@
     </row>
     <row r="93" spans="4:15">
       <c r="H93" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I93" s="5">
         <v>4880.4999999999964</v>
@@ -6341,7 +6927,7 @@
     </row>
     <row r="94" spans="4:15">
       <c r="H94" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I94" s="5">
         <v>42.5</v>
@@ -6367,7 +6953,7 @@
     </row>
     <row r="96" spans="4:15" ht="19" thickBot="1">
       <c r="H96" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I96" s="6">
         <v>13532.75</v>
@@ -9062,20 +9648,20 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB99346-FDFE-254D-AD15-0E551765C04C}">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:15">
       <c r="B2" t="s">
         <v>298</v>
       </c>
@@ -9086,7 +9672,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="B3" t="s">
         <v>272</v>
       </c>
@@ -9106,7 +9692,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="19" thickBot="1">
+    <row r="4" spans="1:15" ht="19" thickBot="1">
       <c r="C4" t="s">
         <v>281</v>
       </c>
@@ -9126,7 +9712,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="D5" s="9" t="s">
         <v>296</v>
       </c>
@@ -9144,10 +9730,8 @@
         <v>269</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="D6" s="9" t="s">
-        <v>293</v>
-      </c>
+    <row r="6" spans="1:15">
+      <c r="D6" s="9"/>
       <c r="H6">
         <v>56</v>
       </c>
@@ -9158,13 +9742,15 @@
         <v>50</v>
       </c>
       <c r="K6" s="5">
+        <f>AVERAGE(H4:H16)</f>
         <v>45</v>
       </c>
       <c r="L6" s="5">
+        <f>AVERAGE(I4:I15)</f>
         <v>42.25</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="H7">
         <v>46</v>
       </c>
@@ -9175,13 +9761,15 @@
         <v>313</v>
       </c>
       <c r="K7" s="5">
+        <f>_xlfn.VAR.S(H4:H16)</f>
         <v>61.666666666666664</v>
       </c>
       <c r="L7" s="5">
+        <f>_xlfn.VAR.S(I4:I15)</f>
         <v>76.38636363636364</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="B8" t="s">
         <v>308</v>
       </c>
@@ -9198,13 +9786,15 @@
         <v>314</v>
       </c>
       <c r="K8" s="5">
+        <f>COUNT(H4:H16)</f>
         <v>13</v>
       </c>
       <c r="L8" s="5">
+        <f>COUNT(I4:I15)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15">
       <c r="C9" t="s">
         <v>310</v>
       </c>
@@ -9221,13 +9811,15 @@
         <v>315</v>
       </c>
       <c r="K9" s="5">
+        <f>K8-1</f>
         <v>12</v>
       </c>
       <c r="L9" s="5">
+        <f>L8-1</f>
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="D10" s="9" t="s">
         <v>301</v>
       </c>
@@ -9244,11 +9836,16 @@
         <v>316</v>
       </c>
       <c r="K10" s="5">
+        <f>K7/L7</f>
         <v>0.80729941485668943</v>
       </c>
       <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="O10">
+        <f>L7/K7</f>
+        <v>1.2386977886977888</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="D11" s="15" t="s">
         <v>275</v>
       </c>
@@ -9268,14 +9865,19 @@
         <v>317</v>
       </c>
       <c r="K11" s="5">
+        <f>_xlfn.F.DIST(K10,K9,L9,1)</f>
         <v>0.35804524123463966</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="19" thickBot="1">
+      <c r="O11">
+        <f>_xlfn.F.DIST.RT(O10,L9,K9)</f>
+        <v>0.35804524123463966</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="19" thickBot="1">
       <c r="D12" s="1" t="s">
         <v>304</v>
       </c>
@@ -9292,14 +9894,19 @@
         <v>318</v>
       </c>
       <c r="K12" s="6">
-        <v>0.36800810711628429</v>
+        <f>_xlfn.F.INV(0.05,K9,L9)</f>
+        <v>0.36800810711628412</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>466</v>
+      </c>
+      <c r="O12">
+        <f>_xlfn.F.INV.RT(0.05,L9,K9)</f>
+        <v>2.7173314409728953</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="D13" s="9"/>
       <c r="H13">
         <v>35</v>
@@ -9308,10 +9915,10 @@
         <v>57</v>
       </c>
       <c r="M13" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="B14" t="s">
         <v>273</v>
       </c>
@@ -9328,7 +9935,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="19" thickBot="1">
+    <row r="15" spans="1:15" ht="19" thickBot="1">
       <c r="B15" t="s">
         <v>272</v>
       </c>
@@ -9342,7 +9949,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15">
       <c r="C16" t="s">
         <v>281</v>
       </c>
@@ -9371,9 +9978,11 @@
         <v>50</v>
       </c>
       <c r="K17" s="5">
+        <f>K6</f>
         <v>45</v>
       </c>
       <c r="L17" s="5">
+        <f>L6</f>
         <v>42.25</v>
       </c>
     </row>
@@ -9385,9 +9994,11 @@
         <v>313</v>
       </c>
       <c r="K18" s="5">
+        <f t="shared" ref="K18:L19" si="0">K7</f>
         <v>61.666666666666664</v>
       </c>
       <c r="L18" s="5">
+        <f t="shared" si="0"/>
         <v>76.38636363636364</v>
       </c>
     </row>
@@ -9402,9 +10013,11 @@
         <v>314</v>
       </c>
       <c r="K19" s="5">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="L19" s="5">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -9415,7 +10028,8 @@
       <c r="J20" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20">
+        <f>((K19-1)*K18+(L19-1)*L18)/K22</f>
         <v>68.706521739130437</v>
       </c>
       <c r="L20" s="5"/>
@@ -9437,6 +10051,7 @@
         <v>315</v>
       </c>
       <c r="K22" s="5">
+        <f>K19+L19-2</f>
         <v>23</v>
       </c>
       <c r="L22" s="5"/>
@@ -9448,8 +10063,9 @@
       <c r="J23" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="K23" s="5">
-        <v>0.82875470535716267</v>
+      <c r="K23">
+        <f>(K17-L17)/SQRT(K20/K19+K20/L19)</f>
+        <v>0.82875470535716256</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" t="s">
@@ -9460,7 +10076,8 @@
       <c r="J24" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24">
+        <f>_xlfn.T.DIST.RT(K23,K22)</f>
         <v>0.20788062599047208</v>
       </c>
       <c r="L24" s="5"/>
@@ -9469,7 +10086,8 @@
       <c r="J25" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25">
+        <f>_xlfn.T.INV(1-0.05,K22)</f>
         <v>1.7138715277470482</v>
       </c>
       <c r="L25" s="5"/>
@@ -9481,7 +10099,8 @@
       <c r="J26" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26">
+        <f>_xlfn.T.DIST.2T(K23,K22)</f>
         <v>0.41576125198094416</v>
       </c>
       <c r="L26" s="5"/>
@@ -9497,41 +10116,42 @@
         <v>328</v>
       </c>
       <c r="K27" s="6">
+        <f>_xlfn.T.INV.2T(0.05,K22)</f>
         <v>2.0686576104190491</v>
       </c>
       <c r="L27" s="6"/>
     </row>
     <row r="29" spans="1:13">
       <c r="G29" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I29" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
+        <v>335</v>
+      </c>
+      <c r="B30" t="s">
         <v>336</v>
       </c>
-      <c r="B30" t="s">
-        <v>337</v>
-      </c>
       <c r="G30" t="s">
+        <v>351</v>
+      </c>
+      <c r="H30" t="s">
+        <v>347</v>
+      </c>
+      <c r="I30" t="s">
+        <v>349</v>
+      </c>
+      <c r="J30" t="s">
         <v>352</v>
-      </c>
-      <c r="H30" t="s">
-        <v>348</v>
-      </c>
-      <c r="I30" t="s">
-        <v>350</v>
-      </c>
-      <c r="J30" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="19" thickBot="1">
       <c r="B31" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H31" s="17">
         <v>24.7</v>
@@ -9542,7 +10162,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="B32" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H32" s="17">
         <v>46.1</v>
@@ -9552,18 +10172,18 @@
       </c>
       <c r="J32" s="7"/>
       <c r="K32" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33" spans="2:13">
       <c r="B33" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D33" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H33" s="17">
         <v>18.5</v>
@@ -9583,7 +10203,7 @@
     </row>
     <row r="34" spans="2:13">
       <c r="B34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H34" s="17">
         <v>29.5</v>
@@ -9623,7 +10243,7 @@
     </row>
     <row r="36" spans="2:13">
       <c r="B36" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H36" s="17">
         <v>33.9</v>
@@ -9632,7 +10252,7 @@
         <v>10.6</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K36" s="5">
         <v>0.25371453001499245</v>
@@ -9641,7 +10261,7 @@
     </row>
     <row r="37" spans="2:13">
       <c r="B37" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H37" s="17">
         <v>23.1</v>
@@ -9659,7 +10279,7 @@
     </row>
     <row r="38" spans="2:13">
       <c r="B38" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H38" s="17">
         <v>20.7</v>
@@ -9693,12 +10313,12 @@
       </c>
       <c r="L39" s="5"/>
       <c r="M39" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40" spans="2:13">
       <c r="C40" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H40" s="17">
         <v>19.3</v>
@@ -9714,12 +10334,12 @@
       </c>
       <c r="L40" s="5"/>
       <c r="M40" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="41" spans="2:13">
       <c r="C41" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H41" s="17">
         <v>23</v>
@@ -9737,7 +10357,7 @@
     </row>
     <row r="42" spans="2:13">
       <c r="C42" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>327</v>
@@ -9749,7 +10369,7 @@
     </row>
     <row r="43" spans="2:13" ht="19" thickBot="1">
       <c r="C43" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J43" s="6" t="s">
         <v>328</v>
@@ -9761,15 +10381,15 @@
     </row>
     <row r="44" spans="2:13">
       <c r="C44" t="s">
+        <v>360</v>
+      </c>
+      <c r="F44" t="s">
         <v>361</v>
-      </c>
-      <c r="F44" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="45" spans="2:13">
       <c r="F45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>

--- a/R/DataAnalysis_with_XL.xlsx
+++ b/R/DataAnalysis_with_XL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tolkien/work/misc/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CF19F9-C62D-6C44-8DE7-DC9F23F011D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95692DA8-5868-0247-B0CA-C7F384F519BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="460" windowWidth="26360" windowHeight="14900" activeTab="9" xr2:uid="{67B1CA6F-5820-064F-AD42-D7A4C2160BED}"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="26360" windowHeight="14900" activeTab="10" xr2:uid="{67B1CA6F-5820-064F-AD42-D7A4C2160BED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,8 @@
     <sheet name="범주형 데이터 분석" sheetId="8" r:id="rId8"/>
     <sheet name="모평균 비교" sheetId="9" r:id="rId9"/>
     <sheet name="모평균 비교.2" sheetId="11" r:id="rId10"/>
-    <sheet name="분산분석" sheetId="10" r:id="rId11"/>
+    <sheet name="모평균 비교 t-paired" sheetId="12" r:id="rId11"/>
+    <sheet name="분산분석" sheetId="10" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">고급필터!$A$5:$H$20</definedName>
@@ -69,7 +70,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId12"/>
+    <pivotCache cacheId="0" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -86,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="477">
   <si>
     <t>번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3836,7 +3837,55 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{997CCEA4-703E-F24D-B476-F7A11AFE5C39}" name="피벗 테이블8" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F7BDFCAB-D9A5-9C44-A551-E814858011D8}" name="피벗 테이블2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="합계 : Gender" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{997CCEA4-703E-F24D-B476-F7A11AFE5C39}" name="피벗 테이블8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G15:M20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -3916,8 +3965,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{373BBE9B-40A9-9046-AC24-88C4564A3DC0}" name="피벗 테이블3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{373BBE9B-40A9-9046-AC24-88C4564A3DC0}" name="피벗 테이블3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G10:H13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -3951,54 +4000,6 @@
   </colItems>
   <dataFields count="1">
     <dataField name="합계 : Gender" fld="1" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F7BDFCAB-D9A5-9C44-A551-E814858011D8}" name="피벗 테이블2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="합계 : Gender" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -4983,10 +4984,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83E327F-C231-D549-A63F-13BCEE8A135C}">
-  <dimension ref="A2:G43"/>
+  <dimension ref="A2:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -5183,33 +5184,33 @@
         <v>470</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="3:7">
       <c r="D17" t="s">
         <v>50</v>
       </c>
       <c r="E17">
-        <f>E6</f>
+        <f t="shared" ref="E17:F19" si="0">E6</f>
         <v>175.1</v>
       </c>
       <c r="F17">
-        <f>F6</f>
+        <f t="shared" si="0"/>
         <v>173.7</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="3:7">
       <c r="D18" t="s">
         <v>313</v>
       </c>
       <c r="E18">
-        <f>E7</f>
+        <f t="shared" si="0"/>
         <v>1831.4333333333359</v>
       </c>
       <c r="F18">
-        <f>F7</f>
+        <f t="shared" si="0"/>
         <v>184.90000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="3:7">
       <c r="C19" t="s">
         <v>329</v>
       </c>
@@ -5217,15 +5218,15 @@
         <v>314</v>
       </c>
       <c r="E19">
-        <f>E8</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F19">
-        <f>F8</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="3:7">
       <c r="D20" t="s">
         <v>323</v>
       </c>
@@ -5237,7 +5238,7 @@
         <v>40656.001111111225</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="3:7">
       <c r="C21" t="s">
         <v>330</v>
       </c>
@@ -5253,7 +5254,7 @@
         <v>3764.8178493827272</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="3:7">
       <c r="C22" t="s">
         <v>272</v>
       </c>
@@ -5265,7 +5266,7 @@
         <v>9.8593179164089884E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="3:7">
       <c r="D23" t="s">
         <v>325</v>
       </c>
@@ -5274,7 +5275,7 @@
         <v>0.46161750063056384</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="3:7">
       <c r="D24" t="s">
         <v>326</v>
       </c>
@@ -5283,7 +5284,7 @@
         <v>1.795884818704043</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="3:7">
       <c r="C25" t="s">
         <v>331</v>
       </c>
@@ -5298,7 +5299,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="19" thickBot="1">
+    <row r="26" spans="3:7" ht="19" thickBot="1">
       <c r="D26" s="22" t="s">
         <v>328</v>
       </c>
@@ -5310,212 +5311,6 @@
       <c r="G26" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
-        <v>350</v>
-      </c>
-      <c r="C29" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>351</v>
-      </c>
-      <c r="B30" t="s">
-        <v>347</v>
-      </c>
-      <c r="C30" t="s">
-        <v>349</v>
-      </c>
-      <c r="D30" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="19" thickBot="1">
-      <c r="B31" s="17">
-        <v>24.7</v>
-      </c>
-      <c r="C31" s="17">
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="B32" s="17">
-        <v>46.1</v>
-      </c>
-      <c r="C32" s="17">
-        <v>14.1</v>
-      </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="17">
-        <v>18.5</v>
-      </c>
-      <c r="C33" s="17">
-        <v>7.6</v>
-      </c>
-      <c r="D33" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33">
-        <v>25.736363636363635</v>
-      </c>
-      <c r="F33">
-        <v>11.899999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="17">
-        <v>29.5</v>
-      </c>
-      <c r="C34" s="17">
-        <v>9.5</v>
-      </c>
-      <c r="D34" t="s">
-        <v>313</v>
-      </c>
-      <c r="E34">
-        <v>69.03254545454547</v>
-      </c>
-      <c r="F34">
-        <v>12.460000000000104</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="17">
-        <v>26.3</v>
-      </c>
-      <c r="C35" s="17">
-        <v>19.7</v>
-      </c>
-      <c r="D35" t="s">
-        <v>314</v>
-      </c>
-      <c r="E35">
-        <v>11</v>
-      </c>
-      <c r="F35">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="17">
-        <v>33.9</v>
-      </c>
-      <c r="C36" s="17">
-        <v>10.6</v>
-      </c>
-      <c r="D36" t="s">
-        <v>353</v>
-      </c>
-      <c r="E36">
-        <v>0.25371453001499245</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="17">
-        <v>23.1</v>
-      </c>
-      <c r="C37" s="17">
-        <v>9.1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>323</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" s="17">
-        <v>20.7</v>
-      </c>
-      <c r="C38" s="17">
-        <v>11.3</v>
-      </c>
-      <c r="D38" t="s">
-        <v>315</v>
-      </c>
-      <c r="E38">
-        <v>10</v>
-      </c>
-      <c r="G38" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39" s="17">
-        <v>18</v>
-      </c>
-      <c r="C39" s="17">
-        <v>13.3</v>
-      </c>
-      <c r="D39" t="s">
-        <v>324</v>
-      </c>
-      <c r="E39">
-        <v>5.622724632312992</v>
-      </c>
-      <c r="G39" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40" s="17">
-        <v>19.3</v>
-      </c>
-      <c r="C40" s="17">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D40" t="s">
-        <v>325</v>
-      </c>
-      <c r="E40">
-        <v>1.1031198475000419E-4</v>
-      </c>
-      <c r="G40" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="B41" s="17">
-        <v>23</v>
-      </c>
-      <c r="C41" s="17">
-        <v>15</v>
-      </c>
-      <c r="D41" t="s">
-        <v>326</v>
-      </c>
-      <c r="E41">
-        <v>1.812461122811676</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="D42" t="s">
-        <v>327</v>
-      </c>
-      <c r="E42">
-        <v>2.2062396950000838E-4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" ht="19" thickBot="1">
-      <c r="D43" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="E43" s="22">
-        <v>2.2281388519862744</v>
-      </c>
-      <c r="F43" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5524,6 +5319,293 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A4D910-5BEB-9342-B4DC-69F4F2ED6431}">
+  <dimension ref="A2:M18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="2" spans="1:13">
+      <c r="G2" t="s">
+        <v>350</v>
+      </c>
+      <c r="I2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B3" t="s">
+        <v>336</v>
+      </c>
+      <c r="G3" t="s">
+        <v>351</v>
+      </c>
+      <c r="H3" t="s">
+        <v>347</v>
+      </c>
+      <c r="I3" t="s">
+        <v>349</v>
+      </c>
+      <c r="J3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="19" thickBot="1">
+      <c r="B4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H4" s="17">
+        <v>24.7</v>
+      </c>
+      <c r="I4" s="17">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="B5" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="H5" s="17">
+        <v>46.1</v>
+      </c>
+      <c r="I5" s="17">
+        <v>14.1</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6" t="s">
+        <v>338</v>
+      </c>
+      <c r="D6" t="s">
+        <v>344</v>
+      </c>
+      <c r="H6" s="17">
+        <v>18.5</v>
+      </c>
+      <c r="I6" s="17">
+        <v>7.6</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="5">
+        <v>25.736363636363635</v>
+      </c>
+      <c r="L6" s="5">
+        <v>11.899999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H7" s="17">
+        <v>29.5</v>
+      </c>
+      <c r="I7" s="17">
+        <v>9.5</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="K7" s="5">
+        <v>69.03254545454547</v>
+      </c>
+      <c r="L7" s="5">
+        <v>12.460000000000104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8" t="s">
+        <v>272</v>
+      </c>
+      <c r="H8" s="17">
+        <v>26.3</v>
+      </c>
+      <c r="I8" s="17">
+        <v>19.7</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="K8" s="5">
+        <v>11</v>
+      </c>
+      <c r="L8" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9" t="s">
+        <v>341</v>
+      </c>
+      <c r="H9" s="17">
+        <v>33.9</v>
+      </c>
+      <c r="I9" s="17">
+        <v>10.6</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.25371453001499245</v>
+      </c>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10" t="s">
+        <v>342</v>
+      </c>
+      <c r="H10" s="17">
+        <v>23.1</v>
+      </c>
+      <c r="I10" s="17">
+        <v>9.1</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="B11" t="s">
+        <v>343</v>
+      </c>
+      <c r="H11" s="17">
+        <v>20.7</v>
+      </c>
+      <c r="I11" s="17">
+        <v>11.3</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="K11" s="5">
+        <v>10</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="H12" s="17">
+        <v>18</v>
+      </c>
+      <c r="I12" s="17">
+        <v>13.3</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="K12" s="5">
+        <v>5.622724632312992</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="C13" t="s">
+        <v>358</v>
+      </c>
+      <c r="H13" s="17">
+        <v>19.3</v>
+      </c>
+      <c r="I13" s="17">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1.1031198475000419E-4</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="C14" t="s">
+        <v>357</v>
+      </c>
+      <c r="H14" s="17">
+        <v>23</v>
+      </c>
+      <c r="I14" s="17">
+        <v>15</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="K14" s="5">
+        <v>1.812461122811676</v>
+      </c>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="C15" t="s">
+        <v>359</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="K15" s="5">
+        <v>2.2062396950000838E-4</v>
+      </c>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" ht="19" thickBot="1">
+      <c r="C16" t="s">
+        <v>356</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="K16" s="6">
+        <v>2.2281388519862744</v>
+      </c>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" t="s">
+        <v>360</v>
+      </c>
+      <c r="F17" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="F18" t="s">
+        <v>362</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE74125-A539-F745-BA50-841E57E9F490}">
   <dimension ref="A1:P96"/>
   <sheetViews>
@@ -9648,10 +9730,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB99346-FDFE-254D-AD15-0E551765C04C}">
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -9970,7 +10052,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="3:13">
       <c r="D17" s="9" t="s">
         <v>276</v>
       </c>
@@ -9986,7 +10068,7 @@
         <v>42.25</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="3:13">
       <c r="D18" s="9" t="s">
         <v>293</v>
       </c>
@@ -10002,7 +10084,7 @@
         <v>76.38636363636364</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="3:13">
       <c r="C19" t="s">
         <v>292</v>
       </c>
@@ -10021,7 +10103,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="3:13">
       <c r="D20" s="9" t="s">
         <v>294</v>
       </c>
@@ -10037,7 +10119,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="3:13">
       <c r="J21" s="5" t="s">
         <v>323</v>
       </c>
@@ -10046,7 +10128,7 @@
       </c>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="3:13">
       <c r="J22" s="5" t="s">
         <v>315</v>
       </c>
@@ -10059,7 +10141,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="3:13">
       <c r="J23" s="5" t="s">
         <v>324</v>
       </c>
@@ -10072,7 +10154,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="3:13">
       <c r="J24" s="5" t="s">
         <v>325</v>
       </c>
@@ -10082,7 +10164,7 @@
       </c>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="3:13">
       <c r="J25" s="5" t="s">
         <v>326</v>
       </c>
@@ -10092,7 +10174,7 @@
       </c>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="3:13">
       <c r="E26" t="s">
         <v>332</v>
       </c>
@@ -10108,7 +10190,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="19" thickBot="1">
+    <row r="27" spans="3:13" ht="19" thickBot="1">
       <c r="E27" t="s">
         <v>333</v>
       </c>
@@ -10120,277 +10202,6 @@
         <v>2.0686576104190491</v>
       </c>
       <c r="L27" s="6"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="G29" t="s">
-        <v>350</v>
-      </c>
-      <c r="I29" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" t="s">
-        <v>335</v>
-      </c>
-      <c r="B30" t="s">
-        <v>336</v>
-      </c>
-      <c r="G30" t="s">
-        <v>351</v>
-      </c>
-      <c r="H30" t="s">
-        <v>347</v>
-      </c>
-      <c r="I30" t="s">
-        <v>349</v>
-      </c>
-      <c r="J30" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="19" thickBot="1">
-      <c r="B31" t="s">
-        <v>340</v>
-      </c>
-      <c r="H31" s="17">
-        <v>24.7</v>
-      </c>
-      <c r="I31" s="17">
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="B32" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="H32" s="17">
-        <v>46.1</v>
-      </c>
-      <c r="I32" s="17">
-        <v>14.1</v>
-      </c>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13">
-      <c r="B33" t="s">
-        <v>338</v>
-      </c>
-      <c r="D33" t="s">
-        <v>344</v>
-      </c>
-      <c r="H33" s="17">
-        <v>18.5</v>
-      </c>
-      <c r="I33" s="17">
-        <v>7.6</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K33" s="5">
-        <v>25.736363636363635</v>
-      </c>
-      <c r="L33" s="5">
-        <v>11.899999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13">
-      <c r="B34" t="s">
-        <v>339</v>
-      </c>
-      <c r="H34" s="17">
-        <v>29.5</v>
-      </c>
-      <c r="I34" s="17">
-        <v>9.5</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="K34" s="5">
-        <v>69.03254545454547</v>
-      </c>
-      <c r="L34" s="5">
-        <v>12.460000000000104</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13">
-      <c r="B35" t="s">
-        <v>272</v>
-      </c>
-      <c r="H35" s="17">
-        <v>26.3</v>
-      </c>
-      <c r="I35" s="17">
-        <v>19.7</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="K35" s="5">
-        <v>11</v>
-      </c>
-      <c r="L35" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13">
-      <c r="B36" t="s">
-        <v>341</v>
-      </c>
-      <c r="H36" s="17">
-        <v>33.9</v>
-      </c>
-      <c r="I36" s="17">
-        <v>10.6</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="K36" s="5">
-        <v>0.25371453001499245</v>
-      </c>
-      <c r="L36" s="5"/>
-    </row>
-    <row r="37" spans="2:13">
-      <c r="B37" t="s">
-        <v>342</v>
-      </c>
-      <c r="H37" s="17">
-        <v>23.1</v>
-      </c>
-      <c r="I37" s="17">
-        <v>9.1</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="K37" s="5">
-        <v>0</v>
-      </c>
-      <c r="L37" s="5"/>
-    </row>
-    <row r="38" spans="2:13">
-      <c r="B38" t="s">
-        <v>343</v>
-      </c>
-      <c r="H38" s="17">
-        <v>20.7</v>
-      </c>
-      <c r="I38" s="17">
-        <v>11.3</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="K38" s="5">
-        <v>10</v>
-      </c>
-      <c r="L38" s="5"/>
-      <c r="M38" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13">
-      <c r="H39" s="17">
-        <v>18</v>
-      </c>
-      <c r="I39" s="17">
-        <v>13.3</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="K39" s="5">
-        <v>5.622724632312992</v>
-      </c>
-      <c r="L39" s="5"/>
-      <c r="M39" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13">
-      <c r="C40" t="s">
-        <v>358</v>
-      </c>
-      <c r="H40" s="17">
-        <v>19.3</v>
-      </c>
-      <c r="I40" s="17">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="K40" s="5">
-        <v>1.1031198475000419E-4</v>
-      </c>
-      <c r="L40" s="5"/>
-      <c r="M40" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13">
-      <c r="C41" t="s">
-        <v>357</v>
-      </c>
-      <c r="H41" s="17">
-        <v>23</v>
-      </c>
-      <c r="I41" s="17">
-        <v>15</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="K41" s="5">
-        <v>1.812461122811676</v>
-      </c>
-      <c r="L41" s="5"/>
-    </row>
-    <row r="42" spans="2:13">
-      <c r="C42" t="s">
-        <v>359</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="K42" s="5">
-        <v>2.2062396950000838E-4</v>
-      </c>
-      <c r="L42" s="5"/>
-    </row>
-    <row r="43" spans="2:13" ht="19" thickBot="1">
-      <c r="C43" t="s">
-        <v>356</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="K43" s="6">
-        <v>2.2281388519862744</v>
-      </c>
-      <c r="L43" s="6"/>
-    </row>
-    <row r="44" spans="2:13">
-      <c r="C44" t="s">
-        <v>360</v>
-      </c>
-      <c r="F44" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13">
-      <c r="F45" t="s">
-        <v>362</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/R/DataAnalysis_with_XL.xlsx
+++ b/R/DataAnalysis_with_XL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tolkien/work/misc/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95692DA8-5868-0247-B0CA-C7F384F519BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19505912-9795-3D4A-BD89-668E6595C56A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="460" windowWidth="26360" windowHeight="14900" activeTab="10" xr2:uid="{67B1CA6F-5820-064F-AD42-D7A4C2160BED}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" firstSheet="1" activeTab="13" xr2:uid="{67B1CA6F-5820-064F-AD42-D7A4C2160BED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,35 @@
     <sheet name="고급필터" sheetId="5" r:id="rId4"/>
     <sheet name="해 찾기" sheetId="4" r:id="rId5"/>
     <sheet name="확률분포" sheetId="6" r:id="rId6"/>
-    <sheet name="추정과 검정" sheetId="7" r:id="rId7"/>
-    <sheet name="범주형 데이터 분석" sheetId="8" r:id="rId8"/>
-    <sheet name="모평균 비교" sheetId="9" r:id="rId9"/>
-    <sheet name="모평균 비교.2" sheetId="11" r:id="rId10"/>
-    <sheet name="모평균 비교 t-paired" sheetId="12" r:id="rId11"/>
-    <sheet name="분산분석" sheetId="10" r:id="rId12"/>
+    <sheet name="표본분포" sheetId="13" r:id="rId7"/>
+    <sheet name="추정과 검정" sheetId="7" r:id="rId8"/>
+    <sheet name="범주형 데이터 분석" sheetId="8" r:id="rId9"/>
+    <sheet name="상관,회귀분석" sheetId="14" r:id="rId10"/>
+    <sheet name="모평균 비교" sheetId="9" r:id="rId11"/>
+    <sheet name="모평균 비교.2" sheetId="11" r:id="rId12"/>
+    <sheet name="모평균 비교 t-paired" sheetId="12" r:id="rId13"/>
+    <sheet name="분산분석" sheetId="10" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">고급필터!$A$5:$H$20</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">분산분석!$E$46:$E$51</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">분산분석!$B$46:$B$51</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">분산분석!$C$45</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">분산분석!$C$46:$C$51</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">분산분석!$D$45</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">분산분석!$D$46:$D$51</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">분산분석!$E$45</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">분산분석!$E$46:$E$51</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">분산분석!$B$46:$B$51</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">분산분석!$C$45</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">분산분석!$C$46:$C$51</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">분산분석!$D$45</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">분산분석!$D$46:$D$51</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">분산분석!$E$45</definedName>
+    <definedName name="_xlchart.v5.0" hidden="1">분산분석!$B$45</definedName>
+    <definedName name="_xlchart.v5.1" hidden="1">분산분석!$B$46:$B$51</definedName>
+    <definedName name="_xlchart.v5.2" hidden="1">분산분석!$C$45</definedName>
+    <definedName name="_xlchart.v5.3" hidden="1">분산분석!$C$46:$C$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="3">고급필터!$B$2:$H$3</definedName>
     <definedName name="solver_adj" localSheetId="4" hidden="1">'해 찾기'!$B$7:$B$8</definedName>
     <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
@@ -70,7 +90,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId13"/>
+    <pivotCache cacheId="0" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -87,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="544">
   <si>
     <t>번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -648,10 +668,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>표집분포</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Random Sampling</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -704,10 +720,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>표본평균 X`의 표본분포</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>중심극한정리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -716,30 +728,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>if X` is not from N(u, s^2)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이항분포의 정규근사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>N(np, np(1-p))</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>X` ~ N(u, s^2/n), i.e. (X` - u)/(s / sqrt(n)) ~ N(0, 1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>if sigma^2 is unknown, use below as sigma</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t ~ t(n - 1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>(X` is a mean of sampling)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -764,54 +756,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>S = sqrt( sum(X_i - X`)^2 / (n - 1) ).</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>n = 자유도</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>X_1, …, X_n is random sample from N(u, s^2)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ka^2 = ( (n-1) S^2 ) / s^2 ~ Ka^2(n - 1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>where S^2 = sum(X_i - X`)^2 / (n - 1) is Var(X`)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>표본분산S의 표준분포</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X` ~ N(u, sigma^2/n)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Then t = (X` - u) / (S / sqrt(n)) ~ t(tn - 1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>두 정규 모집단의 비교시 유용한 분포</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>X`-Y` ~ N(u_1 - u_2, (s_1^2/n_1) + (s_2^2/n_2))</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>모평균의 비교</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>공통분산 s^2의 합동표본분산 추정량</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>( (X`-Y`) - (u_1 - u_2) ) / ( S_p sqrt(1/n_1 + 1/n_2) ) ~ t(n_1 + n_2 - 2)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -820,10 +780,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>i.e. if s_1^2 = s_2^2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>F-분포</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -840,10 +796,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Z_1, …, X_n is random samples from N(0, 1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>F = ( V_1/v_1 )/( V_2/v_2 )</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -927,26 +879,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>if X_i ~ N(u, sigma^2), i = 1, …, n</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> then X` ~ N(u, sigma^2/n), Z = (X` - u) / (sigma / sqrt(n)) ~ N(0, 1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>( X` - Z_(a/2) sigma/sqrt(n) , X` + Z_(a/2) sigma/sqrt(n) )</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>because sigma is unknown usually,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> we estimate Sigma with Standard Variation S</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>in that case, we use t-dist</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1914,6 +1846,344 @@
   </si>
   <si>
     <t>귀무가설(양쪽 점수에 대한 차이가 없다.) 받아들임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S^2 = sum(X_i - X`)^2 / (n - 1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X_1, …, X_n is random sample from N(u, si^2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ka^2 = ( (n-1) S^2 ) / si^2 ~ Ka^2(n - 1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X`-Y` ~ N(u_1 - u_2, (si_1^2/n_1) + (si_2^2/n_2))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X_1, …, X_n is random sample from N(u_1, si_1^2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y_1, …, Y_n is random sample from N(u_2, si_2^2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>if si_1, si_2 are known</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(X` - u_1)/sqrt(si_1^2 / n_1) ~ N(0, 1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Y` - u_2)/sqrt(si_2^2 / n_2) ~ N(0, 1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>then</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>or ((X`-Y`) - (u_1 - u_2)) / sqrt(si_1^2/n_1 + si_2^2/n_2) ~ N(0, 1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   S_p^2 is called 공통분산 s^2의 합동표본분산 추정량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>if si_1, si_2 are unknown, but, we could assume si^2 = si_1^2 = si_2^2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>if si^2 is known</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X` ~ N(u, si^2/n)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>if si^2 is unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>or (X` - u)/(si / sqrt(n)) ~ N(0, 1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>use below S(studentized …) as si</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>표본분산S의 분포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>표본평균 X`의 분포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>표본평균 X`의 분포 (2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>even if X` is not from N(u, si^2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z_1, …, Z_n is random samples from N(0, 1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t(n-1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t = (X` - u) / (S / sqrt(n)) ~ t(n - 1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이항분포[B(n,p)]의 정규근사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ka^2(v, a) where v is df, 백분위수 100(1 -a)%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N(0, 1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t(n_1 + n_2 -2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모분산의 비교</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P(Ka^2 &gt; Ka^2(v, a)) = a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>if X_i ~ N(u, si^2), i = 1, …, n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> then X` ~ N(u, si^2/n), Z = (X` - u) / (si / sqrt(n)) ~ N(0, 1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>( X` - Z_(a/2) si/sqrt(n) , X` + Z_(a/2) si/sqrt(n) )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>because si is unknown usually,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> we estimate si with Standard Variation S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>독립성 검정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regular</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Both-Free</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Caffeine-Free</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sugar Free</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>American</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canadian</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mexican</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2) 기대도수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 관측도수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3) 카이제곱항</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카이제곱 통계량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유의확률 p-값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decision</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>분할표 검정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영남</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>호남</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 관찰도수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reject H0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alpha = 0.05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p.235 예제 7.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p.243 연습문제 08</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>see</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.excelfunctions.net/excel-chisq-test-function.html</t>
+  </si>
+  <si>
+    <t>상관계수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(수리,과학)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(수리,언어)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상관분석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>RESIDUAL OUTPUT</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>Predicted science</t>
+  </si>
+  <si>
+    <t>Residuals</t>
+  </si>
+  <si>
+    <t>회귀분석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H0: b = 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H0 rejected</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>y = 0.48856913 * x + 40.9437686</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summary</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1921,9 +2191,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="179" formatCode="0.0000"/>
+    <numFmt numFmtId="180" formatCode="0.0000_ "/>
+    <numFmt numFmtId="181" formatCode="0.0000000000000_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -2025,7 +2298,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2094,6 +2367,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2986,7 +3280,594 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>분산분석!$C$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>분산분석!$B$46:$B$51</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>B1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>B3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>B4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>B5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>B6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>분산분석!$C$46:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>374.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>349</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-649A-CE40-9F45-8FE7A4D79E07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>분산분석!$D$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>분산분석!$B$46:$B$51</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>B1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>B3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>B4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>B5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>B6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>분산분석!$D$46:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>323.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>328.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>309</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-649A-CE40-9F45-8FE7A4D79E07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>분산분석!$E$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>분산분석!$B$46:$B$51</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>B1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>B3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>B4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>B5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>B6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>분산분석!$E$46:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>334.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-649A-CE40-9F45-8FE7A4D79E07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1191450735"/>
+        <c:axId val="1131497615"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1191450735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1131497615"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1131497615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1191450735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3531,6 +4412,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3593,6 +4977,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038DDA77-EE98-F845-B2EA-FAC0087D81DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>901700</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{190DC739-8E43-6246-AE71-9FEBC2946888}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4313,7 +5738,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView zoomScale="99" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection sqref="A1:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -4983,11 +6408,1379 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A304254D-C4BA-EB4D-B6E5-B03520EBCD30}">
+  <dimension ref="A2:Q52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="2" spans="1:14">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>84</v>
+      </c>
+      <c r="D3">
+        <v>75</v>
+      </c>
+      <c r="E3">
+        <v>91</v>
+      </c>
+      <c r="F3">
+        <v>84</v>
+      </c>
+      <c r="G3">
+        <v>94</v>
+      </c>
+      <c r="I3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>64</v>
+      </c>
+      <c r="D4">
+        <v>45</v>
+      </c>
+      <c r="E4">
+        <v>55</v>
+      </c>
+      <c r="F4">
+        <v>70</v>
+      </c>
+      <c r="G4">
+        <v>60</v>
+      </c>
+      <c r="I4" s="23">
+        <f>CORREL(E3:E17,G3:G17)</f>
+        <v>0.61793507853102825</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>69</v>
+      </c>
+      <c r="D5">
+        <v>57</v>
+      </c>
+      <c r="E5">
+        <v>61</v>
+      </c>
+      <c r="F5">
+        <v>67</v>
+      </c>
+      <c r="G5">
+        <v>76</v>
+      </c>
+      <c r="I5" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="19" thickBot="1">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>84</v>
+      </c>
+      <c r="D6">
+        <v>57</v>
+      </c>
+      <c r="E6">
+        <v>70</v>
+      </c>
+      <c r="F6">
+        <v>55</v>
+      </c>
+      <c r="G6">
+        <v>70</v>
+      </c>
+      <c r="I6" s="23">
+        <f>PEARSON(E3:E17,C3:C17)</f>
+        <v>0.38218703934009823</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>76</v>
+      </c>
+      <c r="D7">
+        <v>37</v>
+      </c>
+      <c r="E7">
+        <v>65</v>
+      </c>
+      <c r="F7">
+        <v>70</v>
+      </c>
+      <c r="G7">
+        <v>55</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>92</v>
+      </c>
+      <c r="D8">
+        <v>67</v>
+      </c>
+      <c r="E8">
+        <v>80</v>
+      </c>
+      <c r="F8">
+        <v>85</v>
+      </c>
+      <c r="G8">
+        <v>80</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>94</v>
+      </c>
+      <c r="D9">
+        <v>85</v>
+      </c>
+      <c r="E9">
+        <v>75</v>
+      </c>
+      <c r="F9">
+        <v>86</v>
+      </c>
+      <c r="G9">
+        <v>85</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="27">
+        <v>0.54774870268375586</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>62</v>
+      </c>
+      <c r="D10">
+        <v>92</v>
+      </c>
+      <c r="E10">
+        <v>58</v>
+      </c>
+      <c r="F10">
+        <v>80</v>
+      </c>
+      <c r="G10">
+        <v>60</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="27">
+        <v>0.38218703934009823</v>
+      </c>
+      <c r="K10" s="27">
+        <v>0.46653739497703223</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>38</v>
+      </c>
+      <c r="E11">
+        <v>80</v>
+      </c>
+      <c r="F11">
+        <v>85</v>
+      </c>
+      <c r="G11">
+        <v>75</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="27">
+        <v>0.1378125662211622</v>
+      </c>
+      <c r="K11" s="27">
+        <v>0.49247696016439202</v>
+      </c>
+      <c r="L11" s="27">
+        <v>0.63155476356166862</v>
+      </c>
+      <c r="M11" s="5">
+        <v>1</v>
+      </c>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" ht="19" thickBot="1">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>75</v>
+      </c>
+      <c r="D12">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>44</v>
+      </c>
+      <c r="F12">
+        <v>55</v>
+      </c>
+      <c r="G12">
+        <v>76</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="28">
+        <v>0.40012165543403982</v>
+      </c>
+      <c r="K12" s="28">
+        <v>0.31900600352694275</v>
+      </c>
+      <c r="L12" s="28">
+        <v>0.61793507853102825</v>
+      </c>
+      <c r="M12" s="28">
+        <v>0.41554695648068302</v>
+      </c>
+      <c r="N12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>42</v>
+      </c>
+      <c r="D13">
+        <v>29</v>
+      </c>
+      <c r="E13">
+        <v>64</v>
+      </c>
+      <c r="F13">
+        <v>70</v>
+      </c>
+      <c r="G13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>34</v>
+      </c>
+      <c r="D14">
+        <v>31</v>
+      </c>
+      <c r="E14">
+        <v>35</v>
+      </c>
+      <c r="F14">
+        <v>66</v>
+      </c>
+      <c r="G14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="19" thickBot="1">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>84</v>
+      </c>
+      <c r="D15">
+        <v>54</v>
+      </c>
+      <c r="E15">
+        <v>68</v>
+      </c>
+      <c r="F15">
+        <v>86</v>
+      </c>
+      <c r="G15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>63</v>
+      </c>
+      <c r="D16">
+        <v>40</v>
+      </c>
+      <c r="E16">
+        <v>60</v>
+      </c>
+      <c r="F16">
+        <v>75</v>
+      </c>
+      <c r="G16">
+        <v>65</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>522</v>
+      </c>
+      <c r="J16" s="29"/>
+      <c r="K16" t="s">
+        <v>539</v>
+      </c>
+      <c r="L16" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>42</v>
+      </c>
+      <c r="D17">
+        <v>55</v>
+      </c>
+      <c r="E17">
+        <v>70</v>
+      </c>
+      <c r="F17">
+        <v>75</v>
+      </c>
+      <c r="G17">
+        <v>70</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0.61793507853102814</v>
+      </c>
+      <c r="K17" t="s">
+        <v>505</v>
+      </c>
+      <c r="L17" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="I18" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0.38184376127914793</v>
+      </c>
+      <c r="L18" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="I19" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.33429328137754388</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="I20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" s="5">
+        <v>9.150586050889375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="19" thickBot="1">
+      <c r="I21" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="J21" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="19" thickBot="1">
+      <c r="I23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="I25" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="J25" s="5">
+        <v>1</v>
+      </c>
+      <c r="K25" s="5">
+        <v>672.40140736182752</v>
+      </c>
+      <c r="L25" s="5">
+        <v>672.40140736182752</v>
+      </c>
+      <c r="M25" s="5">
+        <v>8.030281967065223</v>
+      </c>
+      <c r="N25" s="5">
+        <v>1.4088313805372283E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="I26" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="J26" s="5">
+        <v>13</v>
+      </c>
+      <c r="K26" s="5">
+        <v>1088.5319259715056</v>
+      </c>
+      <c r="L26" s="5">
+        <v>83.733225074731209</v>
+      </c>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="1:17" ht="19" thickBot="1">
+      <c r="I27" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="J27" s="6">
+        <v>14</v>
+      </c>
+      <c r="K27" s="6">
+        <v>1760.9333333333332</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="1:17" ht="19" thickBot="1"/>
+    <row r="29" spans="1:17">
+      <c r="I29" s="7"/>
+      <c r="J29" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="I30" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="J30" s="5">
+        <v>40.943768637288798</v>
+      </c>
+      <c r="K30" s="5">
+        <v>11.464201282585037</v>
+      </c>
+      <c r="L30" s="5">
+        <v>3.5714453739996164</v>
+      </c>
+      <c r="M30" s="5">
+        <v>3.4133426424032619E-3</v>
+      </c>
+      <c r="N30" s="5">
+        <v>16.176867515011537</v>
+      </c>
+      <c r="O30" s="5">
+        <v>65.710669759566059</v>
+      </c>
+      <c r="P30" s="5">
+        <v>16.176867515011537</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>65.710669759566059</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="19" thickBot="1">
+      <c r="I31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="6">
+        <v>0.48856912954986487</v>
+      </c>
+      <c r="K31" s="6">
+        <v>0.17240927474666792</v>
+      </c>
+      <c r="L31" s="6">
+        <v>2.8337752146324555</v>
+      </c>
+      <c r="M31" s="6">
+        <v>1.4088313805372298E-2</v>
+      </c>
+      <c r="N31" s="6">
+        <v>0.11610153630368142</v>
+      </c>
+      <c r="O31" s="6">
+        <v>0.86103672279604826</v>
+      </c>
+      <c r="P31" s="6">
+        <v>0.11610153630368142</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>0.86103672279604826</v>
+      </c>
+    </row>
+    <row r="35" spans="9:11">
+      <c r="I35" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="36" spans="9:11" ht="19" thickBot="1"/>
+    <row r="37" spans="9:11">
+      <c r="I37" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="38" spans="9:11">
+      <c r="I38" s="5">
+        <v>1</v>
+      </c>
+      <c r="J38" s="5">
+        <v>85.403559426326495</v>
+      </c>
+      <c r="K38" s="5">
+        <v>8.5964405736735046</v>
+      </c>
+    </row>
+    <row r="39" spans="9:11">
+      <c r="I39" s="5">
+        <v>2</v>
+      </c>
+      <c r="J39" s="5">
+        <v>67.815070762531363</v>
+      </c>
+      <c r="K39" s="5">
+        <v>-7.8150707625313629</v>
+      </c>
+    </row>
+    <row r="40" spans="9:11">
+      <c r="I40" s="5">
+        <v>3</v>
+      </c>
+      <c r="J40" s="5">
+        <v>70.746485539830559</v>
+      </c>
+      <c r="K40" s="5">
+        <v>5.2535144601694412</v>
+      </c>
+    </row>
+    <row r="41" spans="9:11">
+      <c r="I41" s="5">
+        <v>4</v>
+      </c>
+      <c r="J41" s="5">
+        <v>75.143607705779345</v>
+      </c>
+      <c r="K41" s="5">
+        <v>-5.1436077057793455</v>
+      </c>
+    </row>
+    <row r="42" spans="9:11">
+      <c r="I42" s="5">
+        <v>5</v>
+      </c>
+      <c r="J42" s="5">
+        <v>72.700762058030023</v>
+      </c>
+      <c r="K42" s="5">
+        <v>-17.700762058030023</v>
+      </c>
+    </row>
+    <row r="43" spans="9:11">
+      <c r="I43" s="5">
+        <v>6</v>
+      </c>
+      <c r="J43" s="5">
+        <v>80.029299001277991</v>
+      </c>
+      <c r="K43" s="5">
+        <v>-2.929900127799101E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="9:11">
+      <c r="I44" s="5">
+        <v>7</v>
+      </c>
+      <c r="J44" s="5">
+        <v>77.586453353528668</v>
+      </c>
+      <c r="K44" s="5">
+        <v>7.4135466464713318</v>
+      </c>
+    </row>
+    <row r="45" spans="9:11">
+      <c r="I45" s="5">
+        <v>8</v>
+      </c>
+      <c r="J45" s="5">
+        <v>69.280778151180954</v>
+      </c>
+      <c r="K45" s="5">
+        <v>-9.2807781511809537</v>
+      </c>
+    </row>
+    <row r="46" spans="9:11">
+      <c r="I46" s="5">
+        <v>9</v>
+      </c>
+      <c r="J46" s="5">
+        <v>80.029299001277991</v>
+      </c>
+      <c r="K46" s="5">
+        <v>-5.029299001277991</v>
+      </c>
+    </row>
+    <row r="47" spans="9:11">
+      <c r="I47" s="5">
+        <v>10</v>
+      </c>
+      <c r="J47" s="5">
+        <v>62.440810337482851</v>
+      </c>
+      <c r="K47" s="5">
+        <v>13.559189662517149</v>
+      </c>
+    </row>
+    <row r="48" spans="9:11">
+      <c r="I48" s="5">
+        <v>11</v>
+      </c>
+      <c r="J48" s="5">
+        <v>72.21219292848015</v>
+      </c>
+      <c r="K48" s="5">
+        <v>7.7878070715198504</v>
+      </c>
+    </row>
+    <row r="49" spans="9:11">
+      <c r="I49" s="5">
+        <v>12</v>
+      </c>
+      <c r="J49" s="5">
+        <v>58.043688171534072</v>
+      </c>
+      <c r="K49" s="5">
+        <v>1.9563118284659282</v>
+      </c>
+    </row>
+    <row r="50" spans="9:11">
+      <c r="I50" s="5">
+        <v>13</v>
+      </c>
+      <c r="J50" s="5">
+        <v>74.166469446679599</v>
+      </c>
+      <c r="K50" s="5">
+        <v>10.833530553320401</v>
+      </c>
+    </row>
+    <row r="51" spans="9:11">
+      <c r="I51" s="5">
+        <v>14</v>
+      </c>
+      <c r="J51" s="5">
+        <v>70.257916410280686</v>
+      </c>
+      <c r="K51" s="5">
+        <v>-5.2579164102806857</v>
+      </c>
+    </row>
+    <row r="52" spans="9:11" ht="19" thickBot="1">
+      <c r="I52" s="6">
+        <v>15</v>
+      </c>
+      <c r="J52" s="6">
+        <v>75.143607705779345</v>
+      </c>
+      <c r="K52" s="6">
+        <v>-5.1436077057793455</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB99346-FDFE-254D-AD15-0E551765C04C}">
+  <dimension ref="A1:O27"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="B2" t="s">
+        <v>276</v>
+      </c>
+      <c r="G2" t="s">
+        <v>287</v>
+      </c>
+      <c r="I2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="B3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H3" t="s">
+        <v>246</v>
+      </c>
+      <c r="I3" t="s">
+        <v>248</v>
+      </c>
+      <c r="J3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="19" thickBot="1">
+      <c r="C4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="E4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F4" t="s">
+        <v>278</v>
+      </c>
+      <c r="H4">
+        <v>44</v>
+      </c>
+      <c r="I4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="D5" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="H5">
+        <v>44</v>
+      </c>
+      <c r="I5">
+        <v>47</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="D6" s="9"/>
+      <c r="H6">
+        <v>56</v>
+      </c>
+      <c r="I6">
+        <v>55</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="5">
+        <f>AVERAGE(H4:H16)</f>
+        <v>45</v>
+      </c>
+      <c r="L6" s="5">
+        <f>AVERAGE(I4:I15)</f>
+        <v>42.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="H7">
+        <v>46</v>
+      </c>
+      <c r="I7">
+        <v>29</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="K7" s="5">
+        <f>_xlfn.VAR.S(H4:H16)</f>
+        <v>61.666666666666664</v>
+      </c>
+      <c r="L7" s="5">
+        <f>_xlfn.VAR.S(I4:I15)</f>
+        <v>76.38636363636364</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="B8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="H8">
+        <v>47</v>
+      </c>
+      <c r="I8">
+        <v>40</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="K8" s="5">
+        <f>COUNT(H4:H16)</f>
+        <v>13</v>
+      </c>
+      <c r="L8" s="5">
+        <f>COUNT(I4:I15)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="C9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="H9">
+        <v>38</v>
+      </c>
+      <c r="I9">
+        <v>39</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="K9" s="5">
+        <f>K8-1</f>
+        <v>12</v>
+      </c>
+      <c r="L9" s="5">
+        <f>L8-1</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="D10" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="H10">
+        <v>58</v>
+      </c>
+      <c r="I10">
+        <v>32</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="K10" s="5">
+        <f>K7/L7</f>
+        <v>0.80729941485668943</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="O10">
+        <f>L7/K7</f>
+        <v>1.2386977886977888</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="D11" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="H11">
+        <v>51</v>
+      </c>
+      <c r="I11">
+        <v>41</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="K11" s="5">
+        <f>_xlfn.F.DIST(K10,K9,L9,1)</f>
+        <v>0.35804524123463966</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" t="s">
+        <v>297</v>
+      </c>
+      <c r="O11">
+        <f>_xlfn.F.DIST.RT(O10,L9,K9)</f>
+        <v>0.35804524123463966</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="19" thickBot="1">
+      <c r="D12" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H12">
+        <v>49</v>
+      </c>
+      <c r="I12">
+        <v>42</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="K12" s="6">
+        <f>_xlfn.F.INV(0.05,K9,L9)</f>
+        <v>0.36800810711628412</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" t="s">
+        <v>444</v>
+      </c>
+      <c r="O12">
+        <f>_xlfn.F.INV.RT(0.05,L9,K9)</f>
+        <v>2.7173314409728953</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="D13" s="9"/>
+      <c r="H13">
+        <v>35</v>
+      </c>
+      <c r="I13">
+        <v>57</v>
+      </c>
+      <c r="M13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="B14" t="s">
+        <v>251</v>
+      </c>
+      <c r="G14" t="s">
+        <v>298</v>
+      </c>
+      <c r="H14">
+        <v>46</v>
+      </c>
+      <c r="I14">
+        <v>51</v>
+      </c>
+      <c r="J14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="19" thickBot="1">
+      <c r="B15" t="s">
+        <v>250</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H15">
+        <v>30</v>
+      </c>
+      <c r="I15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="C16" t="s">
+        <v>259</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="E16" t="s">
+        <v>275</v>
+      </c>
+      <c r="H16">
+        <v>41</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13">
+      <c r="D17" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="5">
+        <f>K6</f>
+        <v>45</v>
+      </c>
+      <c r="L17" s="5">
+        <f>L6</f>
+        <v>42.25</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13">
+      <c r="D18" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="K18" s="5">
+        <f t="shared" ref="K18:L19" si="0">K7</f>
+        <v>61.666666666666664</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" si="0"/>
+        <v>76.38636363636364</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13">
+      <c r="C19" t="s">
+        <v>270</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="K19" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="L19" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13">
+      <c r="D20" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="K20">
+        <f>((K19-1)*K18+(L19-1)*L18)/K22</f>
+        <v>68.706521739130437</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13">
+      <c r="J21" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="3:13">
+      <c r="J22" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="K22" s="5">
+        <f>K19+L19-2</f>
+        <v>23</v>
+      </c>
+      <c r="L22" s="5"/>
+      <c r="M22" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13">
+      <c r="J23" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="K23">
+        <f>(K17-L17)/SQRT(K20/K19+K20/L19)</f>
+        <v>0.82875470535716256</v>
+      </c>
+      <c r="L23" s="5"/>
+      <c r="M23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13">
+      <c r="J24" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="K24">
+        <f>_xlfn.T.DIST.RT(K23,K22)</f>
+        <v>0.20788062599047208</v>
+      </c>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="3:13">
+      <c r="J25" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="K25">
+        <f>_xlfn.T.INV(1-0.05,K22)</f>
+        <v>1.7138715277470482</v>
+      </c>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="3:13">
+      <c r="E26" t="s">
+        <v>310</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="K26">
+        <f>_xlfn.T.DIST.2T(K23,K22)</f>
+        <v>0.41576125198094416</v>
+      </c>
+      <c r="L26" s="5"/>
+      <c r="M26" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" ht="19" thickBot="1">
+      <c r="E27" t="s">
+        <v>311</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="K27" s="6">
+        <f>_xlfn.T.INV.2T(0.05,K22)</f>
+        <v>2.0686576104190491</v>
+      </c>
+      <c r="L27" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83E327F-C231-D549-A63F-13BCEE8A135C}">
   <dimension ref="A2:G26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -4997,21 +7790,21 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="B3" t="s">
-        <v>467</v>
+        <v>445</v>
       </c>
       <c r="C3" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="D3" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="19" thickBot="1">
@@ -5031,10 +7824,10 @@
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5064,7 +7857,7 @@
         <v>178</v>
       </c>
       <c r="D7" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="E7">
         <f>_xlfn.VAR.S(B4:B13)</f>
@@ -5083,7 +7876,7 @@
         <v>188</v>
       </c>
       <c r="D8" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="E8">
         <f>COUNT(B4:B13)</f>
@@ -5102,7 +7895,7 @@
         <v>169</v>
       </c>
       <c r="D9" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="E9">
         <f>E8-1</f>
@@ -5121,7 +7914,7 @@
         <v>173</v>
       </c>
       <c r="D10" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="E10">
         <f>E7/F7</f>
@@ -5136,7 +7929,7 @@
         <v>183</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="E11" s="22">
         <f>_xlfn.F.INV.RT(0.05/2,E9,F9)</f>
@@ -5144,7 +7937,7 @@
       </c>
       <c r="F11" s="22"/>
       <c r="G11" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5155,7 +7948,7 @@
         <v>177</v>
       </c>
       <c r="G12" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5168,20 +7961,20 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="D14" t="s">
-        <v>474</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="19" thickBot="1"/>
     <row r="16" spans="1:7">
       <c r="D16" s="21"/>
       <c r="E16" s="21" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="3:7">
@@ -5199,7 +7992,7 @@
     </row>
     <row r="18" spans="3:7">
       <c r="D18" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
@@ -5212,10 +8005,10 @@
     </row>
     <row r="19" spans="3:7">
       <c r="C19" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="D19" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
@@ -5228,7 +8021,7 @@
     </row>
     <row r="20" spans="3:7">
       <c r="D20" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -5240,10 +8033,10 @@
     </row>
     <row r="21" spans="3:7">
       <c r="C21" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="D21" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="E21">
         <f>ROUNDUP(G20/G21, 0)</f>
@@ -5256,10 +8049,10 @@
     </row>
     <row r="22" spans="3:7">
       <c r="C22" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="D22" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="E22">
         <f>(E17-F17)/SQRT(E18/E19+F18/F19)</f>
@@ -5268,7 +8061,7 @@
     </row>
     <row r="23" spans="3:7">
       <c r="D23" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="E23">
         <f>_xlfn.T.DIST.RT(E22, E21)</f>
@@ -5277,7 +8070,7 @@
     </row>
     <row r="24" spans="3:7">
       <c r="D24" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="E24">
         <f>_xlfn.T.INV(1-0.05,E21)</f>
@@ -5286,22 +8079,22 @@
     </row>
     <row r="25" spans="3:7">
       <c r="C25" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="D25" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="E25">
         <f>_xlfn.T.DIST.2T(E22,E21)</f>
         <v>0.92323500126112767</v>
       </c>
       <c r="G25" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
     </row>
     <row r="26" spans="3:7" ht="19" thickBot="1">
       <c r="D26" s="22" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="E26" s="22">
         <f>_xlfn.T.INV.2T(0.05,E21)</f>
@@ -5309,7 +8102,7 @@
       </c>
       <c r="F26" s="22"/>
       <c r="G26" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -5318,11 +8111,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A4D910-5BEB-9342-B4DC-69F4F2ED6431}">
   <dimension ref="A2:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -5330,35 +8123,35 @@
   <sheetData>
     <row r="2" spans="1:13">
       <c r="G2" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="I2" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="B3" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="G3" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="H3" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="I3" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="J3" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="19" thickBot="1">
       <c r="B4" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="H4" s="17">
         <v>24.7</v>
@@ -5369,7 +8162,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="B5" s="11" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="H5" s="17">
         <v>46.1</v>
@@ -5379,18 +8172,18 @@
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="D6" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="H6" s="17">
         <v>18.5</v>
@@ -5410,7 +8203,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="B7" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="H7" s="17">
         <v>29.5</v>
@@ -5419,7 +8212,7 @@
         <v>9.5</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="K7" s="5">
         <v>69.03254545454547</v>
@@ -5430,7 +8223,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="B8" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="H8" s="17">
         <v>26.3</v>
@@ -5439,7 +8232,7 @@
         <v>19.7</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="K8" s="5">
         <v>11</v>
@@ -5450,7 +8243,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="B9" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="H9" s="17">
         <v>33.9</v>
@@ -5459,7 +8252,7 @@
         <v>10.6</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="K9" s="5">
         <v>0.25371453001499245</v>
@@ -5468,7 +8261,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="B10" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="H10" s="17">
         <v>23.1</v>
@@ -5477,7 +8270,7 @@
         <v>9.1</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="K10" s="5">
         <v>0</v>
@@ -5486,7 +8279,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="B11" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="H11" s="17">
         <v>20.7</v>
@@ -5495,14 +8288,14 @@
         <v>11.3</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="K11" s="5">
         <v>10</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -5513,19 +8306,19 @@
         <v>13.3</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="K12" s="5">
         <v>5.622724632312992</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="C13" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="H13" s="17">
         <v>19.3</v>
@@ -5534,19 +8327,19 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="K13" s="5">
         <v>1.1031198475000419E-4</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="C14" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="H14" s="17">
         <v>23</v>
@@ -5555,7 +8348,7 @@
         <v>15</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="K14" s="5">
         <v>1.812461122811676</v>
@@ -5564,10 +8357,10 @@
     </row>
     <row r="15" spans="1:13">
       <c r="C15" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="K15" s="5">
         <v>2.2062396950000838E-4</v>
@@ -5576,10 +8369,10 @@
     </row>
     <row r="16" spans="1:13" ht="19" thickBot="1">
       <c r="C16" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="K16" s="6">
         <v>2.2281388519862744</v>
@@ -5588,15 +8381,15 @@
     </row>
     <row r="17" spans="3:6">
       <c r="C17" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="F17" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="3:6">
       <c r="F18" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -5605,64 +8398,64 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE74125-A539-F745-BA50-841E57E9F490}">
   <dimension ref="A1:P96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="B1" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="B2" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="H2" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="I2" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="K2" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="B3" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="H3" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="I3" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="J3" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="K3" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="L3" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="H4" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="I4">
         <v>49</v>
@@ -5679,7 +8472,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="I5">
         <v>73</v>
@@ -5696,10 +8489,10 @@
     </row>
     <row r="6" spans="1:12">
       <c r="B6" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="H6" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="I6">
         <v>58</v>
@@ -5716,7 +8509,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="B7" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="I7">
         <v>38</v>
@@ -5730,7 +8523,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="B8" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="I8">
         <v>42</v>
@@ -5749,48 +8542,48 @@
     </row>
     <row r="10" spans="1:12">
       <c r="B10" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="G10" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="G11" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="H11" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="J11" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="G12" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="J12" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="19" thickBot="1">
       <c r="H13" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>62</v>
@@ -5799,18 +8592,18 @@
         <v>61</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="I15" s="5">
         <v>5</v>
@@ -5827,10 +8620,10 @@
     </row>
     <row r="16" spans="1:12">
       <c r="B16" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="I16" s="5">
         <v>6</v>
@@ -5847,7 +8640,7 @@
     </row>
     <row r="17" spans="2:16">
       <c r="H17" s="5" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="I17" s="5">
         <v>5</v>
@@ -5864,10 +8657,10 @@
     </row>
     <row r="18" spans="2:16" ht="19" thickBot="1">
       <c r="B18" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="I18" s="6">
         <v>3</v>
@@ -5884,39 +8677,39 @@
     </row>
     <row r="19" spans="2:16">
       <c r="B19" s="1" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
       <c r="C19" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="D19" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="E19" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="F19" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="N19" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="2:16">
       <c r="B20" s="1" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="C20" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="D20" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="E20" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="F20" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="N20">
         <f>_xlfn.F.INV(0.95, 3, 15)</f>
@@ -5925,65 +8718,65 @@
     </row>
     <row r="21" spans="2:16" ht="19" thickBot="1">
       <c r="B21" s="1" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="C21" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="D21" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="E21" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="H21" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="M21" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
       <c r="N21" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
     </row>
     <row r="22" spans="2:16">
       <c r="B22" s="1" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="C22" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="D22" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23" spans="2:16">
       <c r="F23" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="I23" s="5">
         <v>1874.8842105263161</v>
@@ -6006,13 +8799,13 @@
     </row>
     <row r="24" spans="2:16">
       <c r="C24" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="F24" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="I24" s="5">
         <v>2508.7999999999997</v>
@@ -6029,10 +8822,10 @@
     </row>
     <row r="25" spans="2:16">
       <c r="C25" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="F25" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -6044,10 +8837,10 @@
     </row>
     <row r="26" spans="2:16" ht="19" thickBot="1">
       <c r="C26" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="I26" s="6">
         <v>4383.6842105263158</v>
@@ -6062,46 +8855,46 @@
     </row>
     <row r="28" spans="2:16">
       <c r="B28" s="18" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
     </row>
     <row r="29" spans="2:16">
       <c r="B29" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="H29" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="I29" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="K29" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
     </row>
     <row r="30" spans="2:16">
       <c r="C30" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="H30" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="I30" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="J30" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="K30" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="2:16">
       <c r="B31" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="H31" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="I31" s="19">
         <v>305</v>
@@ -6117,7 +8910,7 @@
     </row>
     <row r="32" spans="2:16">
       <c r="C32" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="I32">
         <v>302</v>
@@ -6131,12 +8924,12 @@
       <c r="O32" s="19"/>
       <c r="P32" s="19"/>
     </row>
-    <row r="33" spans="3:16">
+    <row r="33" spans="2:16">
       <c r="C33" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="H33" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="I33">
         <v>335</v>
@@ -6150,9 +8943,9 @@
       <c r="O33" s="19"/>
       <c r="P33" s="19"/>
     </row>
-    <row r="34" spans="3:16">
+    <row r="34" spans="2:16">
       <c r="C34" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="I34">
         <v>337</v>
@@ -6166,12 +8959,12 @@
       <c r="O34" s="19"/>
       <c r="P34" s="19"/>
     </row>
-    <row r="35" spans="3:16">
+    <row r="35" spans="2:16">
       <c r="C35" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="H35" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="I35">
         <v>366</v>
@@ -6185,7 +8978,7 @@
       <c r="O35" s="19"/>
       <c r="P35" s="19"/>
     </row>
-    <row r="36" spans="3:16">
+    <row r="36" spans="2:16">
       <c r="I36">
         <v>364</v>
       </c>
@@ -6198,9 +8991,9 @@
       <c r="O36" s="19"/>
       <c r="P36" s="19"/>
     </row>
-    <row r="37" spans="3:16">
+    <row r="37" spans="2:16">
       <c r="H37" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
       <c r="I37">
         <v>372</v>
@@ -6212,7 +9005,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="38" spans="3:16">
+    <row r="38" spans="2:16">
       <c r="I38">
         <v>374</v>
       </c>
@@ -6223,9 +9016,9 @@
         <v>348</v>
       </c>
     </row>
-    <row r="39" spans="3:16">
+    <row r="39" spans="2:16">
       <c r="H39" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="I39">
         <v>376</v>
@@ -6237,7 +9030,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="40" spans="3:16">
+    <row r="40" spans="2:16">
       <c r="I40">
         <v>373</v>
       </c>
@@ -6248,9 +9041,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="41" spans="3:16">
+    <row r="41" spans="2:16">
       <c r="H41" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="I41">
         <v>348</v>
@@ -6262,7 +9055,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="42" spans="3:16">
+    <row r="42" spans="2:16">
       <c r="I42">
         <v>350</v>
       </c>
@@ -6273,49 +9066,91 @@
         <v>328</v>
       </c>
     </row>
-    <row r="43" spans="3:16">
+    <row r="43" spans="2:16">
       <c r="G43" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="H43" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="44" spans="3:16">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16">
       <c r="G44" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="45" spans="3:16">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16">
+      <c r="B45" t="s">
+        <v>543</v>
+      </c>
+      <c r="C45" t="s">
+        <v>373</v>
+      </c>
+      <c r="D45" t="s">
+        <v>375</v>
+      </c>
+      <c r="E45" t="s">
+        <v>377</v>
+      </c>
       <c r="G45" t="s">
-        <v>463</v>
+        <v>441</v>
       </c>
       <c r="H45" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="I45" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="J45" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="K45" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="L45" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="46" spans="3:16" ht="19" thickBot="1">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" ht="19" thickBot="1">
+      <c r="B46" t="s">
+        <v>424</v>
+      </c>
+      <c r="C46">
+        <f>I49</f>
+        <v>303.5</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46:E46" si="0">J49</f>
+        <v>323.5</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>321</v>
+      </c>
       <c r="H46" s="20" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
       <c r="K46" s="20"/>
       <c r="L46" s="20"/>
     </row>
-    <row r="47" spans="3:16">
+    <row r="47" spans="2:16">
+      <c r="B47" t="s">
+        <v>426</v>
+      </c>
+      <c r="C47">
+        <f>I55</f>
+        <v>336</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ref="D47:E47" si="1">J55</f>
+        <v>349</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>343</v>
+      </c>
       <c r="H47" s="5" t="s">
         <v>62</v>
       </c>
@@ -6332,7 +9167,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="3:16">
+    <row r="48" spans="2:16">
+      <c r="B48" t="s">
+        <v>428</v>
+      </c>
+      <c r="C48">
+        <f>I61</f>
+        <v>365</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ref="D48:E48" si="2">J61</f>
+        <v>325</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="2"/>
+        <v>334.5</v>
+      </c>
       <c r="H48" s="5" t="s">
         <v>61</v>
       </c>
@@ -6349,9 +9199,24 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="49" spans="8:12">
+    <row r="49" spans="2:12">
+      <c r="B49" t="s">
+        <v>430</v>
+      </c>
+      <c r="C49">
+        <f>I67</f>
+        <v>373</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ref="D49:E49" si="3">J67</f>
+        <v>330</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="3"/>
+        <v>348</v>
+      </c>
       <c r="H49" s="5" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="I49" s="5">
         <v>303.5</v>
@@ -6366,9 +9231,24 @@
         <v>316</v>
       </c>
     </row>
-    <row r="50" spans="8:12">
+    <row r="50" spans="2:12">
+      <c r="B50" t="s">
+        <v>432</v>
+      </c>
+      <c r="C50">
+        <f>I73</f>
+        <v>374.5</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ref="D50:E50" si="4">J73</f>
+        <v>328.5</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="4"/>
+        <v>350</v>
+      </c>
       <c r="H50" s="5" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="I50" s="5">
         <v>4.5</v>
@@ -6383,23 +9263,38 @@
         <v>97.2</v>
       </c>
     </row>
-    <row r="51" spans="8:12" hidden="1">
+    <row r="51" spans="2:12">
+      <c r="B51" t="s">
+        <v>434</v>
+      </c>
+      <c r="C51">
+        <f>I79</f>
+        <v>349</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ref="D51:E51" si="5">J79</f>
+        <v>309</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="5"/>
+        <v>329</v>
+      </c>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
     </row>
-    <row r="52" spans="8:12" ht="19" hidden="1" thickBot="1">
+    <row r="52" spans="2:12" ht="19" thickBot="1">
       <c r="H52" s="20" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="I52" s="20"/>
       <c r="J52" s="20"/>
       <c r="K52" s="20"/>
       <c r="L52" s="20"/>
     </row>
-    <row r="53" spans="8:12" hidden="1">
+    <row r="53" spans="2:12">
       <c r="H53" s="5" t="s">
         <v>62</v>
       </c>
@@ -6416,7 +9311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="8:12" hidden="1">
+    <row r="54" spans="2:12">
       <c r="H54" s="5" t="s">
         <v>61</v>
       </c>
@@ -6433,9 +9328,9 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="55" spans="8:12" hidden="1">
+    <row r="55" spans="2:12">
       <c r="H55" s="5" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="I55" s="5">
         <v>336</v>
@@ -6450,9 +9345,9 @@
         <v>342.66666666666669</v>
       </c>
     </row>
-    <row r="56" spans="8:12" hidden="1">
+    <row r="56" spans="2:12">
       <c r="H56" s="5" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="I56" s="5">
         <v>2</v>
@@ -6467,23 +9362,23 @@
         <v>35.066666666666663</v>
       </c>
     </row>
-    <row r="57" spans="8:12" hidden="1">
+    <row r="57" spans="2:12">
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
     </row>
-    <row r="58" spans="8:12" ht="19" hidden="1" thickBot="1">
+    <row r="58" spans="2:12" ht="19" thickBot="1">
       <c r="H58" s="20" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="I58" s="20"/>
       <c r="J58" s="20"/>
       <c r="K58" s="20"/>
       <c r="L58" s="20"/>
     </row>
-    <row r="59" spans="8:12" hidden="1">
+    <row r="59" spans="2:12">
       <c r="H59" s="5" t="s">
         <v>62</v>
       </c>
@@ -6500,7 +9395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="8:12" hidden="1">
+    <row r="60" spans="2:12">
       <c r="H60" s="5" t="s">
         <v>61</v>
       </c>
@@ -6517,9 +9412,9 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="61" spans="8:12" hidden="1">
+    <row r="61" spans="2:12">
       <c r="H61" s="5" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="I61" s="5">
         <v>365</v>
@@ -6534,9 +9429,9 @@
         <v>341.5</v>
       </c>
     </row>
-    <row r="62" spans="8:12" hidden="1">
+    <row r="62" spans="2:12">
       <c r="H62" s="5" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="I62" s="5">
         <v>2</v>
@@ -6551,23 +9446,23 @@
         <v>351.1</v>
       </c>
     </row>
-    <row r="63" spans="8:12" hidden="1">
+    <row r="63" spans="2:12">
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
     </row>
-    <row r="64" spans="8:12" ht="19" hidden="1" thickBot="1">
+    <row r="64" spans="2:12" ht="19" thickBot="1">
       <c r="H64" s="20" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
       <c r="I64" s="20"/>
       <c r="J64" s="20"/>
       <c r="K64" s="20"/>
       <c r="L64" s="20"/>
     </row>
-    <row r="65" spans="8:12" hidden="1">
+    <row r="65" spans="8:12">
       <c r="H65" s="5" t="s">
         <v>62</v>
       </c>
@@ -6584,7 +9479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="8:12" hidden="1">
+    <row r="66" spans="8:12">
       <c r="H66" s="5" t="s">
         <v>61</v>
       </c>
@@ -6601,9 +9496,9 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="67" spans="8:12" hidden="1">
+    <row r="67" spans="8:12">
       <c r="H67" s="5" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="I67" s="5">
         <v>373</v>
@@ -6618,9 +9513,9 @@
         <v>350.33333333333331</v>
       </c>
     </row>
-    <row r="68" spans="8:12" hidden="1">
+    <row r="68" spans="8:12">
       <c r="H68" s="5" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="I68" s="5">
         <v>2</v>
@@ -6635,23 +9530,23 @@
         <v>373.46666666666664</v>
       </c>
     </row>
-    <row r="69" spans="8:12" hidden="1">
+    <row r="69" spans="8:12">
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
     </row>
-    <row r="70" spans="8:12" ht="19" hidden="1" thickBot="1">
+    <row r="70" spans="8:12" ht="19" thickBot="1">
       <c r="H70" s="20" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="I70" s="20"/>
       <c r="J70" s="20"/>
       <c r="K70" s="20"/>
       <c r="L70" s="20"/>
     </row>
-    <row r="71" spans="8:12" hidden="1">
+    <row r="71" spans="8:12">
       <c r="H71" s="5" t="s">
         <v>62</v>
       </c>
@@ -6668,7 +9563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="8:12" hidden="1">
+    <row r="72" spans="8:12">
       <c r="H72" s="5" t="s">
         <v>61</v>
       </c>
@@ -6685,9 +9580,9 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="73" spans="8:12" hidden="1">
+    <row r="73" spans="8:12">
       <c r="H73" s="5" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="I73" s="5">
         <v>374.5</v>
@@ -6702,9 +9597,9 @@
         <v>351</v>
       </c>
     </row>
-    <row r="74" spans="8:12" hidden="1">
+    <row r="74" spans="8:12">
       <c r="H74" s="5" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="I74" s="5">
         <v>4.5</v>
@@ -6719,23 +9614,23 @@
         <v>425.6</v>
       </c>
     </row>
-    <row r="75" spans="8:12" hidden="1">
+    <row r="75" spans="8:12">
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
     </row>
-    <row r="76" spans="8:12" ht="19" hidden="1" thickBot="1">
+    <row r="76" spans="8:12" ht="19" thickBot="1">
       <c r="H76" s="20" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="I76" s="20"/>
       <c r="J76" s="20"/>
       <c r="K76" s="20"/>
       <c r="L76" s="20"/>
     </row>
-    <row r="77" spans="8:12" hidden="1">
+    <row r="77" spans="8:12">
       <c r="H77" s="5" t="s">
         <v>62</v>
       </c>
@@ -6752,7 +9647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="8:12" hidden="1">
+    <row r="78" spans="8:12">
       <c r="H78" s="5" t="s">
         <v>61</v>
       </c>
@@ -6769,9 +9664,9 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="79" spans="8:12" hidden="1">
+    <row r="79" spans="8:12">
       <c r="H79" s="5" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="I79" s="5">
         <v>349</v>
@@ -6786,9 +9681,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="80" spans="8:12" hidden="1">
+    <row r="80" spans="8:12">
       <c r="H80" s="5" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="I80" s="5">
         <v>2</v>
@@ -6812,7 +9707,7 @@
     </row>
     <row r="82" spans="4:15" ht="19" thickBot="1">
       <c r="H82" s="20" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="I82" s="20"/>
       <c r="J82" s="20"/>
@@ -6860,7 +9755,7 @@
     </row>
     <row r="85" spans="4:15">
       <c r="H85" s="5" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="I85" s="5">
         <v>350.16666666666669</v>
@@ -6878,7 +9773,7 @@
     </row>
     <row r="86" spans="4:15">
       <c r="H86" s="5" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="I86" s="5">
         <v>676.69696969696952</v>
@@ -6906,41 +9801,41 @@
     </row>
     <row r="89" spans="4:15" ht="19" thickBot="1">
       <c r="D89" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="H89" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
     </row>
     <row r="90" spans="4:15">
       <c r="D90" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="L90" s="7" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="M90" s="7" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="N90" s="7" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
     </row>
     <row r="91" spans="4:15">
       <c r="H91" s="5" t="s">
-        <v>459</v>
+        <v>437</v>
       </c>
       <c r="I91" s="5">
         <v>5514.5833333333339</v>
@@ -6963,7 +9858,7 @@
     </row>
     <row r="92" spans="4:15">
       <c r="H92" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="I92" s="5">
         <v>3095.1666666666697</v>
@@ -6986,7 +9881,7 @@
     </row>
     <row r="93" spans="4:15">
       <c r="H93" s="5" t="s">
-        <v>461</v>
+        <v>439</v>
       </c>
       <c r="I93" s="5">
         <v>4880.4999999999964</v>
@@ -7009,7 +9904,7 @@
     </row>
     <row r="94" spans="4:15">
       <c r="H94" s="5" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="I94" s="5">
         <v>42.5</v>
@@ -7035,7 +9930,7 @@
     </row>
     <row r="96" spans="4:15" ht="19" thickBot="1">
       <c r="H96" s="6" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="I96" s="6">
         <v>13532.75</v>
@@ -7051,6 +9946,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8245,10 +11141,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7989B05A-970C-EC41-B9B2-1331878E555D}">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -8455,234 +11351,6 @@
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="B34" t="s">
-        <v>148</v>
-      </c>
-      <c r="C34" t="s">
-        <v>146</v>
-      </c>
-      <c r="E34" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="B35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C35" t="s">
-        <v>147</v>
-      </c>
-      <c r="E35" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="B36" t="s">
-        <v>150</v>
-      </c>
-      <c r="C36" t="s">
-        <v>152</v>
-      </c>
-      <c r="E36" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="B37" t="s">
-        <v>153</v>
-      </c>
-      <c r="C37" t="s">
-        <v>154</v>
-      </c>
-      <c r="E37" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="B38" t="s">
-        <v>156</v>
-      </c>
-      <c r="C38" t="s">
-        <v>151</v>
-      </c>
-      <c r="E38" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>159</v>
-      </c>
-      <c r="C40" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="B41" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>160</v>
-      </c>
-      <c r="B43" t="s">
-        <v>161</v>
-      </c>
-      <c r="D43" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="B44" t="s">
-        <v>163</v>
-      </c>
-      <c r="D44" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="B46" t="s">
-        <v>143</v>
-      </c>
-      <c r="C46" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="B47" t="s">
-        <v>167</v>
-      </c>
-      <c r="C47" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="C48" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="C49" t="s">
-        <v>174</v>
-      </c>
-      <c r="F49" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="D50" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="C51" t="s">
-        <v>169</v>
-      </c>
-      <c r="E51" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="E52" t="s">
-        <v>170</v>
-      </c>
-      <c r="G52" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="B54" t="s">
-        <v>171</v>
-      </c>
-      <c r="C54" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="B55" t="s">
-        <v>172</v>
-      </c>
-      <c r="C55" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" t="s">
-        <v>179</v>
-      </c>
-      <c r="C57" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="B58" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="C59" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="B62" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="C63" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="B64" t="s">
-        <v>185</v>
-      </c>
-      <c r="E64" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5">
-      <c r="C65" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5">
-      <c r="C66" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5">
-      <c r="B68" t="s">
-        <v>189</v>
-      </c>
-      <c r="C68" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5">
-      <c r="B69" t="s">
-        <v>190</v>
-      </c>
-      <c r="C69" t="s">
-        <v>194</v>
-      </c>
-      <c r="E69" t="s">
-        <v>195</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8690,248 +11358,299 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C623DB-2418-DE49-A230-EAD3D0ADD3F5}">
-  <dimension ref="A1:I41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2C52F2-EAF9-D243-B5D9-C327B656DDDA}">
+  <dimension ref="A2:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="B2" t="s">
-        <v>198</v>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>474</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>468</v>
+      </c>
+      <c r="G2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="C3" t="s">
-        <v>200</v>
-      </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="B4" t="s">
-        <v>201</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="G3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="C4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>469</v>
+      </c>
+      <c r="G4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H4" t="s">
+        <v>151</v>
+      </c>
+      <c r="J4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="C5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>471</v>
+      </c>
+      <c r="G5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="G6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" t="s">
+        <v>150</v>
+      </c>
+      <c r="J6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="C8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>159</v>
+      </c>
+      <c r="D7" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" t="s">
+        <v>480</v>
+      </c>
+      <c r="D8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>212</v>
-      </c>
-      <c r="B10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>227</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="C10" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="B12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="B13" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>214</v>
-      </c>
-      <c r="B14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>478</v>
+      </c>
+      <c r="C12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="D13" t="s">
+        <v>455</v>
+      </c>
+      <c r="G13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="C14" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="B16" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="B17" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="B18" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="C19" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>162</v>
+      </c>
+      <c r="D16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="D17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="B20" t="s">
-        <v>289</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="C21" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>214</v>
-      </c>
-      <c r="B23" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="B24" s="11" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>223</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="B27" t="s">
-        <v>286</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="D27" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="C28" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="C29" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>165</v>
+      </c>
+      <c r="C20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="C21" t="s">
+        <v>481</v>
+      </c>
+      <c r="G21" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="C23" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="C24" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="D25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="C29" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="B30" t="s">
-        <v>280</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="D30" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="C31" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>214</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="C30" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="C31" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
       <c r="B33" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="B34" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>226</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="C33" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="C34" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
       <c r="B36" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="B37" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="B38" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="B39" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="B40" s="15" t="s">
-        <v>275</v>
+        <v>483</v>
+      </c>
+      <c r="C36" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="C37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="C38" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" t="s">
+        <v>173</v>
       </c>
       <c r="C40" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="B41" s="1" t="s">
-        <v>278</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" t="s">
+        <v>177</v>
+      </c>
+      <c r="E41" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -8941,11 +11660,262 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B880057-1417-9C44-8EFE-169F315DE364}">
-  <dimension ref="A1:T34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C623DB-2418-DE49-A230-EAD3D0ADD3F5}">
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="C3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="C5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="C8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="B17" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="B18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="C19" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" t="s">
+        <v>267</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="C21" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>197</v>
+      </c>
+      <c r="B23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>201</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" t="s">
+        <v>264</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="D27" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="C28" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="C29" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" t="s">
+        <v>258</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="D30" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="C31" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>197</v>
+      </c>
+      <c r="B33" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="B34" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="B37" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="B38" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="B40" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="C40" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="B41" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B880057-1417-9C44-8EFE-169F315DE364}">
+  <dimension ref="A1:T59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -8959,22 +11929,22 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="B1" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="C1" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="D1" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="E1" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="G1" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -8995,13 +11965,13 @@
         <v>3</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="I2" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -9022,25 +11992,25 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="O3" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -9061,7 +12031,7 @@
         <v>2</v>
       </c>
       <c r="O4" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -9094,13 +12064,13 @@
         <v>4</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="H5" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="O5" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -9139,7 +12109,7 @@
         <v>12</v>
       </c>
       <c r="O6" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -9193,7 +12163,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="H8" s="13">
         <v>38</v>
@@ -9235,10 +12205,10 @@
         <v>4</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="H10" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -9246,7 +12216,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -9307,7 +12277,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="H13" s="14">
         <v>1</v>
@@ -9349,10 +12319,10 @@
         <v>2</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -9373,7 +12343,7 @@
         <v>3</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -9391,10 +12361,10 @@
         <v>5</v>
       </c>
       <c r="M16" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9431,7 +12401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9468,7 +12438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:19">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9503,7 +12473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9521,7 +12491,7 @@
         <v>3</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="H20" s="13">
         <v>1</v>
@@ -9542,7 +12512,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:19">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9559,8 +12529,14 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" t="s">
+        <v>491</v>
+      </c>
+      <c r="O21" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9577,8 +12553,26 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" t="s">
+        <v>501</v>
+      </c>
+      <c r="O22" t="s">
+        <v>492</v>
+      </c>
+      <c r="P22" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>494</v>
+      </c>
+      <c r="R22" t="s">
+        <v>495</v>
+      </c>
+      <c r="S22" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9595,8 +12589,27 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" t="s">
+        <v>496</v>
+      </c>
+      <c r="O23">
+        <v>72</v>
+      </c>
+      <c r="P23">
+        <v>8</v>
+      </c>
+      <c r="Q23">
+        <v>12</v>
+      </c>
+      <c r="R23">
+        <v>23</v>
+      </c>
+      <c r="S23">
+        <f>SUM(O23:R23)</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9613,8 +12626,27 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" t="s">
+        <v>497</v>
+      </c>
+      <c r="O24">
+        <v>26</v>
+      </c>
+      <c r="P24">
+        <v>10</v>
+      </c>
+      <c r="Q24">
+        <v>16</v>
+      </c>
+      <c r="R24">
+        <v>33</v>
+      </c>
+      <c r="S24">
+        <f t="shared" ref="S24:S26" si="1">SUM(O24:R24)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25">
         <v>24</v>
       </c>
@@ -9631,8 +12663,27 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" t="s">
+        <v>498</v>
+      </c>
+      <c r="O25">
+        <v>7</v>
+      </c>
+      <c r="P25">
+        <v>10</v>
+      </c>
+      <c r="Q25">
+        <v>14</v>
+      </c>
+      <c r="R25">
+        <v>19</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9649,40 +12700,135 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N26" t="s">
+        <v>499</v>
+      </c>
+      <c r="O26">
+        <f>SUM(O23:O25)</f>
+        <v>105</v>
+      </c>
+      <c r="P26">
+        <f t="shared" ref="P26:R26" si="2">SUM(P23:P25)</f>
+        <v>28</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="S26">
+        <f>SUM(O26:R26)</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>233</v>
+      </c>
+      <c r="N28" t="s">
+        <v>500</v>
+      </c>
+      <c r="O28" t="s">
+        <v>492</v>
+      </c>
+      <c r="P28" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>494</v>
+      </c>
+      <c r="R28" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>240</v>
+      </c>
+      <c r="N29" t="s">
+        <v>496</v>
+      </c>
+      <c r="O29">
+        <f>$S23*O$26/$S$26</f>
+        <v>48.3</v>
+      </c>
+      <c r="P29">
+        <f t="shared" ref="P29:R29" si="3">$S23*P26/$S$26</f>
+        <v>12.88</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="3"/>
+        <v>19.32</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="3"/>
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>242</v>
+      </c>
+      <c r="N30" t="s">
+        <v>497</v>
+      </c>
+      <c r="O30">
+        <f t="shared" ref="O30:R31" si="4">$S24*O$26/$S$26</f>
+        <v>35.700000000000003</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="4"/>
+        <v>9.52</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="4"/>
+        <v>14.28</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="4"/>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="D31" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="E31" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="F31" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="G31" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>238</v>
+      </c>
+      <c r="N31" t="s">
+        <v>498</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="4"/>
+        <v>5.6</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="4"/>
+        <v>8.4</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="D32">
         <v>322</v>
       </c>
@@ -9696,12 +12842,12 @@
         <v>32</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="11" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="D33">
         <v>9</v>
@@ -9715,10 +12861,452 @@
       <c r="G33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="N33" t="s">
+        <v>502</v>
+      </c>
+      <c r="O33" t="s">
+        <v>492</v>
+      </c>
+      <c r="P33" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>494</v>
+      </c>
+      <c r="R33" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" t="s">
-        <v>263</v>
+        <v>241</v>
+      </c>
+      <c r="N34" t="s">
+        <v>496</v>
+      </c>
+      <c r="O34" s="23">
+        <f>(O23-O29)^2/O29</f>
+        <v>11.629192546583855</v>
+      </c>
+      <c r="P34" s="23">
+        <f>(P23-P29)^2/P29</f>
+        <v>1.8489440993788824</v>
+      </c>
+      <c r="Q34" s="23">
+        <f>(Q23-Q29)^2/Q29</f>
+        <v>2.7734161490683231</v>
+      </c>
+      <c r="R34" s="23">
+        <f>(R23-R29)^2/R29</f>
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="S34" s="23"/>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="N35" t="s">
+        <v>497</v>
+      </c>
+      <c r="O35" s="23">
+        <f>(O24-O30)^2/O30</f>
+        <v>2.635574229691878</v>
+      </c>
+      <c r="P35" s="23">
+        <f>(P24-P30)^2/P30</f>
+        <v>2.4201680672268952E-2</v>
+      </c>
+      <c r="Q35" s="23">
+        <f>(Q24-Q30)^2/Q30</f>
+        <v>0.20717086834733911</v>
+      </c>
+      <c r="R35" s="23">
+        <f>(R24-R30)^2/R30</f>
+        <v>2.2058823529411766</v>
+      </c>
+      <c r="S35" s="23"/>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="B36" t="s">
+        <v>506</v>
+      </c>
+      <c r="C36" t="s">
+        <v>514</v>
+      </c>
+      <c r="N36" t="s">
+        <v>498</v>
+      </c>
+      <c r="O36" s="23">
+        <f>(O25-O31)^2/O31</f>
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="P36" s="23">
+        <f>(P25-P31)^2/P31</f>
+        <v>3.4571428571428577</v>
+      </c>
+      <c r="Q36" s="23">
+        <f>(Q25-Q31)^2/Q31</f>
+        <v>3.7333333333333325</v>
+      </c>
+      <c r="R36" s="23">
+        <f>(R25-R31)^2/R31</f>
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="S36" s="23"/>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="B37" t="s">
+        <v>511</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="23">
+        <f>SUM(O34:R36)</f>
+        <v>42.748191450493252</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="B38" t="s">
+        <v>507</v>
+      </c>
+      <c r="C38">
+        <v>158</v>
+      </c>
+      <c r="D38">
+        <v>53</v>
+      </c>
+      <c r="E38">
+        <v>62</v>
+      </c>
+      <c r="F38">
+        <f>SUM(C38:E38)</f>
+        <v>273</v>
+      </c>
+      <c r="N38" t="s">
+        <v>503</v>
+      </c>
+      <c r="P38" s="23">
+        <f>S37</f>
+        <v>42.748191450493252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="B39" t="s">
+        <v>508</v>
+      </c>
+      <c r="C39">
+        <v>172</v>
+      </c>
+      <c r="D39">
+        <v>128</v>
+      </c>
+      <c r="E39">
+        <v>83</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ref="F39:F42" si="5">SUM(C39:E39)</f>
+        <v>383</v>
+      </c>
+      <c r="N39" t="s">
+        <v>504</v>
+      </c>
+      <c r="P39" s="26">
+        <f>_xlfn.CHISQ.TEST(O23:R25,O29:R31)</f>
+        <v>1.3082051097773601E-7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="B40" t="s">
+        <v>509</v>
+      </c>
+      <c r="C40">
+        <v>95</v>
+      </c>
+      <c r="D40">
+        <v>162</v>
+      </c>
+      <c r="E40">
+        <v>27</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="5"/>
+        <v>284</v>
+      </c>
+      <c r="N40" t="s">
+        <v>411</v>
+      </c>
+      <c r="O40" t="s">
+        <v>513</v>
+      </c>
+      <c r="P40" s="23">
+        <f>_xlfn.CHISQ.INV.RT(0.05,(3-1)*(4-1))</f>
+        <v>12.591587243743978</v>
+      </c>
+      <c r="R40" t="s">
+        <v>505</v>
+      </c>
+      <c r="S40" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="B41" t="s">
+        <v>510</v>
+      </c>
+      <c r="C41">
+        <v>40</v>
+      </c>
+      <c r="D41">
+        <v>21</v>
+      </c>
+      <c r="E41">
+        <v>99</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="5"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="C42">
+        <f>SUM(C38:C41)</f>
+        <v>465</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42:E42" si="6">SUM(D38:D41)</f>
+        <v>364</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="6"/>
+        <v>271</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="5"/>
+        <v>1100</v>
+      </c>
+      <c r="N42" t="s">
+        <v>516</v>
+      </c>
+      <c r="O42" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="G43" s="25"/>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="B44" t="s">
+        <v>500</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="B45" t="s">
+        <v>507</v>
+      </c>
+      <c r="C45" s="23">
+        <f>$F38*C$42/$F$42</f>
+        <v>115.40454545454546</v>
+      </c>
+      <c r="D45" s="23">
+        <f t="shared" ref="D45:E45" si="7">$F38*D$42/$F$42</f>
+        <v>90.338181818181823</v>
+      </c>
+      <c r="E45" s="23">
+        <f t="shared" si="7"/>
+        <v>67.257272727272721</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="B46" t="s">
+        <v>508</v>
+      </c>
+      <c r="C46" s="23">
+        <f t="shared" ref="C46:E48" si="8">$F39*C$42/$F$42</f>
+        <v>161.90454545454546</v>
+      </c>
+      <c r="D46" s="23">
+        <f t="shared" si="8"/>
+        <v>126.73818181818181</v>
+      </c>
+      <c r="E46" s="23">
+        <f t="shared" si="8"/>
+        <v>94.357272727272729</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="B47" t="s">
+        <v>509</v>
+      </c>
+      <c r="C47" s="23">
+        <f t="shared" si="8"/>
+        <v>120.05454545454545</v>
+      </c>
+      <c r="D47" s="23">
+        <f t="shared" si="8"/>
+        <v>93.978181818181824</v>
+      </c>
+      <c r="E47" s="23">
+        <f t="shared" si="8"/>
+        <v>69.967272727272729</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="B48" t="s">
+        <v>510</v>
+      </c>
+      <c r="C48" s="23">
+        <f t="shared" si="8"/>
+        <v>67.63636363636364</v>
+      </c>
+      <c r="D48" s="23">
+        <f t="shared" si="8"/>
+        <v>52.945454545454545</v>
+      </c>
+      <c r="E48" s="23">
+        <f t="shared" si="8"/>
+        <v>39.418181818181822</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="F49" s="23"/>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" t="s">
+        <v>502</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" t="s">
+        <v>507</v>
+      </c>
+      <c r="C52" s="23">
+        <f>(C38-C45)^2/C45</f>
+        <v>15.721848223461125</v>
+      </c>
+      <c r="D52" s="23">
+        <f t="shared" ref="D52:E52" si="9">(D38-D45)^2/D45</f>
+        <v>15.432453846519785</v>
+      </c>
+      <c r="E52" s="23">
+        <f t="shared" si="9"/>
+        <v>0.41094316507600537</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" t="s">
+        <v>508</v>
+      </c>
+      <c r="C53" s="23">
+        <f t="shared" ref="C53:E55" si="10">(C39-C46)^2/C46</f>
+        <v>0.62949562159113226</v>
+      </c>
+      <c r="D53" s="23">
+        <f t="shared" si="10"/>
+        <v>1.2562789690727097E-2</v>
+      </c>
+      <c r="E53" s="23">
+        <f t="shared" si="10"/>
+        <v>1.3670132685423699</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54" t="s">
+        <v>509</v>
+      </c>
+      <c r="C54" s="23">
+        <f t="shared" si="10"/>
+        <v>5.228708713670092</v>
+      </c>
+      <c r="D54" s="23">
+        <f t="shared" si="10"/>
+        <v>49.234488891390285</v>
+      </c>
+      <c r="E54" s="23">
+        <f t="shared" si="10"/>
+        <v>26.386429735744223</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55" t="s">
+        <v>510</v>
+      </c>
+      <c r="C55" s="23">
+        <f t="shared" si="10"/>
+        <v>11.292277614858262</v>
+      </c>
+      <c r="D55" s="23">
+        <f t="shared" si="10"/>
+        <v>19.274781468531469</v>
+      </c>
+      <c r="E55" s="23">
+        <f t="shared" si="10"/>
+        <v>90.059786984233469</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="F56" s="23">
+        <f>SUM(C52:E55)</f>
+        <v>235.05079032330895</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" t="s">
+        <v>503</v>
+      </c>
+      <c r="D57" s="23">
+        <f>F56</f>
+        <v>235.05079032330895</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" t="s">
+        <v>504</v>
+      </c>
+      <c r="D58" s="24">
+        <f>_xlfn.CHISQ.TEST(C38:E41,C45:E48)</f>
+        <v>6.3972472948726568E-48</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" t="s">
+        <v>411</v>
+      </c>
+      <c r="C59" t="s">
+        <v>513</v>
+      </c>
+      <c r="D59" s="23">
+        <f>_xlfn.CHISQ.INV.RT(0.05,(3-1)*(3-1))</f>
+        <v>9.4877290367811575</v>
+      </c>
+      <c r="F59" t="s">
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -9726,485 +13314,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId4"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB99346-FDFE-254D-AD15-0E551765C04C}">
-  <dimension ref="A1:O27"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="B2" t="s">
-        <v>298</v>
-      </c>
-      <c r="G2" t="s">
-        <v>309</v>
-      </c>
-      <c r="I2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="B3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="G3" t="s">
-        <v>311</v>
-      </c>
-      <c r="H3" t="s">
-        <v>268</v>
-      </c>
-      <c r="I3" t="s">
-        <v>270</v>
-      </c>
-      <c r="J3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="19" thickBot="1">
-      <c r="C4" t="s">
-        <v>281</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="E4" t="s">
-        <v>299</v>
-      </c>
-      <c r="F4" t="s">
-        <v>300</v>
-      </c>
-      <c r="H4">
-        <v>44</v>
-      </c>
-      <c r="I4">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="D5" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="H5">
-        <v>44</v>
-      </c>
-      <c r="I5">
-        <v>47</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="D6" s="9"/>
-      <c r="H6">
-        <v>56</v>
-      </c>
-      <c r="I6">
-        <v>55</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="5">
-        <f>AVERAGE(H4:H16)</f>
-        <v>45</v>
-      </c>
-      <c r="L6" s="5">
-        <f>AVERAGE(I4:I15)</f>
-        <v>42.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="H7">
-        <v>46</v>
-      </c>
-      <c r="I7">
-        <v>29</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="K7" s="5">
-        <f>_xlfn.VAR.S(H4:H16)</f>
-        <v>61.666666666666664</v>
-      </c>
-      <c r="L7" s="5">
-        <f>_xlfn.VAR.S(I4:I15)</f>
-        <v>76.38636363636364</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="B8" t="s">
-        <v>308</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="H8">
-        <v>47</v>
-      </c>
-      <c r="I8">
-        <v>40</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="K8" s="5">
-        <f>COUNT(H4:H16)</f>
-        <v>13</v>
-      </c>
-      <c r="L8" s="5">
-        <f>COUNT(I4:I15)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="C9" t="s">
-        <v>310</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="H9">
-        <v>38</v>
-      </c>
-      <c r="I9">
-        <v>39</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="K9" s="5">
-        <f>K8-1</f>
-        <v>12</v>
-      </c>
-      <c r="L9" s="5">
-        <f>L8-1</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="D10" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="H10">
-        <v>58</v>
-      </c>
-      <c r="I10">
-        <v>32</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="K10" s="5">
-        <f>K7/L7</f>
-        <v>0.80729941485668943</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="O10">
-        <f>L7/K7</f>
-        <v>1.2386977886977888</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="D11" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="H11">
-        <v>51</v>
-      </c>
-      <c r="I11">
-        <v>41</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="K11" s="5">
-        <f>_xlfn.F.DIST(K10,K9,L9,1)</f>
-        <v>0.35804524123463966</v>
-      </c>
-      <c r="L11" s="5"/>
-      <c r="M11" t="s">
-        <v>319</v>
-      </c>
-      <c r="O11">
-        <f>_xlfn.F.DIST.RT(O10,L9,K9)</f>
-        <v>0.35804524123463966</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="19" thickBot="1">
-      <c r="D12" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="H12">
-        <v>49</v>
-      </c>
-      <c r="I12">
-        <v>42</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="K12" s="6">
-        <f>_xlfn.F.INV(0.05,K9,L9)</f>
-        <v>0.36800810711628412</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" t="s">
-        <v>466</v>
-      </c>
-      <c r="O12">
-        <f>_xlfn.F.INV.RT(0.05,L9,K9)</f>
-        <v>2.7173314409728953</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="D13" s="9"/>
-      <c r="H13">
-        <v>35</v>
-      </c>
-      <c r="I13">
-        <v>57</v>
-      </c>
-      <c r="M13" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="B14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G14" t="s">
-        <v>320</v>
-      </c>
-      <c r="H14">
-        <v>46</v>
-      </c>
-      <c r="I14">
-        <v>51</v>
-      </c>
-      <c r="J14" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="19" thickBot="1">
-      <c r="B15" t="s">
-        <v>272</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="H15">
-        <v>30</v>
-      </c>
-      <c r="I15">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="C16" t="s">
-        <v>281</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="E16" t="s">
-        <v>297</v>
-      </c>
-      <c r="H16">
-        <v>41</v>
-      </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="17" spans="3:13">
-      <c r="D17" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K17" s="5">
-        <f>K6</f>
-        <v>45</v>
-      </c>
-      <c r="L17" s="5">
-        <f>L6</f>
-        <v>42.25</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13">
-      <c r="D18" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="K18" s="5">
-        <f t="shared" ref="K18:L19" si="0">K7</f>
-        <v>61.666666666666664</v>
-      </c>
-      <c r="L18" s="5">
-        <f t="shared" si="0"/>
-        <v>76.38636363636364</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13">
-      <c r="C19" t="s">
-        <v>292</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="K19" s="5">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="L19" s="5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="3:13">
-      <c r="D20" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="K20">
-        <f>((K19-1)*K18+(L19-1)*L18)/K22</f>
-        <v>68.706521739130437</v>
-      </c>
-      <c r="L20" s="5"/>
-      <c r="M20" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13">
-      <c r="J21" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="K21" s="5">
-        <v>0</v>
-      </c>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="3:13">
-      <c r="J22" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="K22" s="5">
-        <f>K19+L19-2</f>
-        <v>23</v>
-      </c>
-      <c r="L22" s="5"/>
-      <c r="M22" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13">
-      <c r="J23" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="K23">
-        <f>(K17-L17)/SQRT(K20/K19+K20/L19)</f>
-        <v>0.82875470535716256</v>
-      </c>
-      <c r="L23" s="5"/>
-      <c r="M23" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13">
-      <c r="J24" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="K24">
-        <f>_xlfn.T.DIST.RT(K23,K22)</f>
-        <v>0.20788062599047208</v>
-      </c>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="3:13">
-      <c r="J25" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="K25">
-        <f>_xlfn.T.INV(1-0.05,K22)</f>
-        <v>1.7138715277470482</v>
-      </c>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="3:13">
-      <c r="E26" t="s">
-        <v>332</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="K26">
-        <f>_xlfn.T.DIST.2T(K23,K22)</f>
-        <v>0.41576125198094416</v>
-      </c>
-      <c r="L26" s="5"/>
-      <c r="M26" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" ht="19" thickBot="1">
-      <c r="E27" t="s">
-        <v>333</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="K27" s="6">
-        <f>_xlfn.T.INV.2T(0.05,K22)</f>
-        <v>2.0686576104190491</v>
-      </c>
-      <c r="L27" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>